--- a/测试函数比较.xlsx
+++ b/测试函数比较.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="结果汇总" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
     <sheet name="Griewank Function" sheetId="11" r:id="rId11"/>
     <sheet name="Goldstein-Price Function" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="154">
   <si>
     <t>测试函数结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -366,10 +366,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2、Rosenbrock's Function</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3、Schwefel's Problem</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -627,21 +623,33 @@
   </si>
   <si>
     <t>小数点后保留2位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxFitnessCalls=100000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、Rosenbrock's Function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小数点后保留3位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.000"/>
     <numFmt numFmtId="177" formatCode="0.0000"/>
     <numFmt numFmtId="178" formatCode="0.00000"/>
     <numFmt numFmtId="179" formatCode="0.0000_ "/>
-    <numFmt numFmtId="182" formatCode="0.00000_ "/>
+    <numFmt numFmtId="180" formatCode="0.00000_ "/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1090,6 +1098,30 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1100,6 +1132,48 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1132,32 +1206,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1176,54 +1232,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2211,7 +2219,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2285,6 +2293,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2319,6 +2328,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2494,14 +2504,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23:G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21.95" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.25" style="1" customWidth="1"/>
@@ -2514,31 +2524,31 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="44.25" customHeight="1">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-    </row>
-    <row r="2" spans="1:8" ht="39.950000000000003" customHeight="1">
-      <c r="A2" s="51" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+    </row>
+    <row r="2" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="53"/>
-    </row>
-    <row r="3" spans="1:8" ht="21.95" customHeight="1">
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="61"/>
+    </row>
+    <row r="3" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -2553,7 +2563,7 @@
       </c>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8" ht="21.95" customHeight="1">
+    <row r="4" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -2568,19 +2578,19 @@
       </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" ht="21.95" customHeight="1">
+    <row r="5" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="91" t="s">
-        <v>149</v>
-      </c>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
+      <c r="E5" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" ht="21.95" customHeight="1">
+    <row r="6" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11" t="s">
         <v>1</v>
       </c>
@@ -2606,7 +2616,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="41.25" customHeight="1">
+    <row r="7" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="11" t="s">
         <v>40</v>
       </c>
@@ -2617,20 +2627,20 @@
         <v>45</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>110</v>
+        <v>151</v>
       </c>
       <c r="H7" s="12"/>
     </row>
-    <row r="8" spans="1:8" ht="21.95" customHeight="1">
+    <row r="8" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="11" t="s">
         <v>8</v>
       </c>
@@ -2654,7 +2664,7 @@
       </c>
       <c r="H8" s="41"/>
     </row>
-    <row r="9" spans="1:8" ht="21.95" customHeight="1">
+    <row r="9" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="11" t="s">
         <v>3</v>
       </c>
@@ -2678,7 +2688,7 @@
       </c>
       <c r="H9" s="41"/>
     </row>
-    <row r="10" spans="1:8" ht="21.95" customHeight="1">
+    <row r="10" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="11" t="s">
         <v>28</v>
       </c>
@@ -2690,19 +2700,19 @@
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="39.950000000000003" customHeight="1">
-      <c r="A11" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="53"/>
-    </row>
-    <row r="12" spans="1:8" ht="26.25" customHeight="1">
+    <row r="11" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="59" t="s">
+        <v>152</v>
+      </c>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="61"/>
+    </row>
+    <row r="12" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2713,11 +2723,11 @@
         <v>10</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="13" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2732,13 +2742,13 @@
       </c>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="14" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="26"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="18" t="s">
@@ -2746,7 +2756,7 @@
       </c>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:8" ht="21.95" customHeight="1">
+    <row r="15" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="11" t="s">
         <v>1</v>
       </c>
@@ -2772,7 +2782,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="16" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="11" t="s">
         <v>40</v>
       </c>
@@ -2783,20 +2793,20 @@
         <v>44</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="H16" s="12"/>
     </row>
-    <row r="17" spans="1:8" ht="21.95" customHeight="1">
+    <row r="17" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="11" t="s">
         <v>8</v>
       </c>
@@ -2806,7 +2816,7 @@
       <c r="C17" s="41">
         <v>3854.6840000000002</v>
       </c>
-      <c r="D17" s="88">
+      <c r="D17" s="54">
         <v>3861.9344000000001</v>
       </c>
       <c r="E17" s="41">
@@ -2820,7 +2830,7 @@
       </c>
       <c r="H17" s="41"/>
     </row>
-    <row r="18" spans="1:8" ht="21.95" customHeight="1">
+    <row r="18" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="11" t="s">
         <v>3</v>
       </c>
@@ -2844,7 +2854,7 @@
       </c>
       <c r="H18" s="41"/>
     </row>
-    <row r="19" spans="1:8" ht="21.95" customHeight="1">
+    <row r="19" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="11" t="s">
         <v>28</v>
       </c>
@@ -2856,19 +2866,19 @@
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="39.950000000000003" customHeight="1">
-      <c r="A20" s="51" t="s">
-        <v>85</v>
-      </c>
-      <c r="B20" s="52"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="53"/>
-    </row>
-    <row r="21" spans="1:8" ht="21.95" customHeight="1">
+    <row r="20" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="61"/>
+    </row>
+    <row r="21" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2883,7 +2893,7 @@
       </c>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="22" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2898,17 +2908,19 @@
       </c>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="27"/>
+      <c r="E23" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:8" ht="21.95" customHeight="1">
+    <row r="24" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="11" t="s">
         <v>1</v>
       </c>
@@ -2934,7 +2946,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="25" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="11" t="s">
         <v>40</v>
       </c>
@@ -2945,20 +2957,20 @@
         <v>44</v>
       </c>
       <c r="D25" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="F25" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="E25" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>115</v>
-      </c>
       <c r="G25" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H25" s="12"/>
     </row>
-    <row r="26" spans="1:8" ht="21.95" customHeight="1">
+    <row r="26" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="11" t="s">
         <v>8</v>
       </c>
@@ -2982,7 +2994,7 @@
       </c>
       <c r="H26" s="41"/>
     </row>
-    <row r="27" spans="1:8" ht="21.95" customHeight="1">
+    <row r="27" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="11" t="s">
         <v>3</v>
       </c>
@@ -3006,7 +3018,7 @@
       </c>
       <c r="H27" s="41"/>
     </row>
-    <row r="28" spans="1:8" ht="21.95" customHeight="1">
+    <row r="28" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="11" t="s">
         <v>28</v>
       </c>
@@ -3018,19 +3030,19 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" ht="39.950000000000003" customHeight="1">
-      <c r="A29" s="51" t="s">
-        <v>86</v>
-      </c>
-      <c r="B29" s="52"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="53"/>
-    </row>
-    <row r="30" spans="1:8" ht="21.95" customHeight="1">
+    <row r="29" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="60"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="61"/>
+    </row>
+    <row r="30" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -3045,7 +3057,7 @@
       </c>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="31" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="6"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -3060,7 +3072,7 @@
       </c>
       <c r="H31" s="7"/>
     </row>
-    <row r="32" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="32" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="6"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -3072,7 +3084,7 @@
       </c>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" spans="1:8" ht="21.95" customHeight="1">
+    <row r="33" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="11" t="s">
         <v>1</v>
       </c>
@@ -3098,7 +3110,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="34" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="11" t="s">
         <v>40</v>
       </c>
@@ -3109,20 +3121,20 @@
         <v>72</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H34" s="12"/>
     </row>
-    <row r="35" spans="1:8" ht="21.95" customHeight="1">
+    <row r="35" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="11" t="s">
         <v>8</v>
       </c>
@@ -3138,7 +3150,7 @@
       <c r="G35" s="41"/>
       <c r="H35" s="41"/>
     </row>
-    <row r="36" spans="1:8" ht="21.95" customHeight="1">
+    <row r="36" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="11" t="s">
         <v>3</v>
       </c>
@@ -3154,7 +3166,7 @@
       <c r="G36" s="41"/>
       <c r="H36" s="41"/>
     </row>
-    <row r="37" spans="1:8" ht="21.95" customHeight="1">
+    <row r="37" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="11" t="s">
         <v>28</v>
       </c>
@@ -3166,19 +3178,19 @@
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="39.950000000000003" customHeight="1">
-      <c r="A38" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="B38" s="52"/>
-      <c r="C38" s="52"/>
-      <c r="D38" s="52"/>
-      <c r="E38" s="52"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="52"/>
-      <c r="H38" s="53"/>
-    </row>
-    <row r="39" spans="1:8" ht="21.95" customHeight="1">
+    <row r="38" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" s="60"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="60"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="61"/>
+    </row>
+    <row r="39" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -3189,11 +3201,11 @@
         <v>10</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H39" s="5"/>
     </row>
-    <row r="40" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="40" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="6"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -3208,7 +3220,7 @@
       </c>
       <c r="H40" s="7"/>
     </row>
-    <row r="41" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="41" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="6"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -3218,7 +3230,7 @@
       <c r="G41" s="27"/>
       <c r="H41" s="7"/>
     </row>
-    <row r="42" spans="1:8" ht="21.95" customHeight="1">
+    <row r="42" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="11" t="s">
         <v>1</v>
       </c>
@@ -3244,7 +3256,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="43" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="11" t="s">
         <v>40</v>
       </c>
@@ -3255,18 +3267,18 @@
         <v>44</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E43" s="12"/>
       <c r="F43" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H43" s="12"/>
     </row>
-    <row r="44" spans="1:8" ht="21.95" customHeight="1">
+    <row r="44" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="11" t="s">
         <v>8</v>
       </c>
@@ -3288,7 +3300,7 @@
       </c>
       <c r="H44" s="41"/>
     </row>
-    <row r="45" spans="1:8" ht="21.95" customHeight="1">
+    <row r="45" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="11" t="s">
         <v>3</v>
       </c>
@@ -3310,7 +3322,7 @@
       </c>
       <c r="H45" s="41"/>
     </row>
-    <row r="46" spans="1:8" ht="21.95" customHeight="1">
+    <row r="46" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="11" t="s">
         <v>28</v>
       </c>
@@ -3322,19 +3334,19 @@
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
     </row>
-    <row r="47" spans="1:8" ht="39.950000000000003" customHeight="1">
-      <c r="A47" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="B47" s="52"/>
-      <c r="C47" s="52"/>
-      <c r="D47" s="52"/>
-      <c r="E47" s="52"/>
-      <c r="F47" s="52"/>
-      <c r="G47" s="52"/>
-      <c r="H47" s="53"/>
-    </row>
-    <row r="48" spans="1:8" ht="21.95" customHeight="1">
+    <row r="47" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="B47" s="60"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="60"/>
+      <c r="H47" s="61"/>
+    </row>
+    <row r="48" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -3345,11 +3357,11 @@
         <v>10</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H48" s="5"/>
     </row>
-    <row r="49" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="49" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="6"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -3364,7 +3376,7 @@
       </c>
       <c r="H49" s="7"/>
     </row>
-    <row r="50" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="50" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="6"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -3374,7 +3386,7 @@
       <c r="G50" s="27"/>
       <c r="H50" s="7"/>
     </row>
-    <row r="51" spans="1:8" ht="21.95" customHeight="1">
+    <row r="51" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="11" t="s">
         <v>1</v>
       </c>
@@ -3400,7 +3412,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="52" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="11" t="s">
         <v>40</v>
       </c>
@@ -3411,18 +3423,18 @@
         <v>44</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E52" s="12"/>
       <c r="F52" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H52" s="12"/>
     </row>
-    <row r="53" spans="1:8" ht="21.95" customHeight="1">
+    <row r="53" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="11" t="s">
         <v>8</v>
       </c>
@@ -3444,7 +3456,7 @@
       </c>
       <c r="H53" s="41"/>
     </row>
-    <row r="54" spans="1:8" ht="21.95" customHeight="1">
+    <row r="54" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="11" t="s">
         <v>3</v>
       </c>
@@ -3466,7 +3478,7 @@
       </c>
       <c r="H54" s="41"/>
     </row>
-    <row r="55" spans="1:8" ht="21.95" customHeight="1">
+    <row r="55" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="11" t="s">
         <v>28</v>
       </c>
@@ -3478,19 +3490,19 @@
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
     </row>
-    <row r="56" spans="1:8" ht="39.950000000000003" customHeight="1">
-      <c r="A56" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="B56" s="52"/>
-      <c r="C56" s="52"/>
-      <c r="D56" s="52"/>
-      <c r="E56" s="52"/>
-      <c r="F56" s="52"/>
-      <c r="G56" s="52"/>
-      <c r="H56" s="53"/>
-    </row>
-    <row r="57" spans="1:8" ht="21.95" customHeight="1">
+    <row r="56" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="B56" s="60"/>
+      <c r="C56" s="60"/>
+      <c r="D56" s="60"/>
+      <c r="E56" s="60"/>
+      <c r="F56" s="60"/>
+      <c r="G56" s="60"/>
+      <c r="H56" s="61"/>
+    </row>
+    <row r="57" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="2"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -3501,11 +3513,11 @@
         <v>10</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H57" s="5"/>
     </row>
-    <row r="58" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="58" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="6"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -3513,14 +3525,14 @@
         <v>79</v>
       </c>
       <c r="F58" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G58" s="18" t="s">
         <v>71</v>
       </c>
       <c r="H58" s="7"/>
     </row>
-    <row r="59" spans="1:8" ht="21.95" customHeight="1">
+    <row r="59" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="6"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -3530,7 +3542,7 @@
       <c r="G59" s="27"/>
       <c r="H59" s="7"/>
     </row>
-    <row r="60" spans="1:8" ht="21.95" customHeight="1">
+    <row r="60" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="11" t="s">
         <v>1</v>
       </c>
@@ -3556,7 +3568,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="61" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="11" t="s">
         <v>40</v>
       </c>
@@ -3567,18 +3579,18 @@
         <v>44</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E61" s="12"/>
       <c r="F61" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H61" s="12"/>
     </row>
-    <row r="62" spans="1:8" ht="21.95" customHeight="1">
+    <row r="62" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="11" t="s">
         <v>8</v>
       </c>
@@ -3600,7 +3612,7 @@
       </c>
       <c r="H62" s="41"/>
     </row>
-    <row r="63" spans="1:8" ht="21.95" customHeight="1">
+    <row r="63" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="11" t="s">
         <v>3</v>
       </c>
@@ -3622,7 +3634,7 @@
       </c>
       <c r="H63" s="41"/>
     </row>
-    <row r="64" spans="1:8" ht="21.95" customHeight="1">
+    <row r="64" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="11" t="s">
         <v>28</v>
       </c>
@@ -3634,19 +3646,19 @@
       <c r="G64" s="8"/>
       <c r="H64" s="8"/>
     </row>
-    <row r="65" spans="1:8" ht="39.950000000000003" customHeight="1">
-      <c r="A65" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="B65" s="52"/>
-      <c r="C65" s="52"/>
-      <c r="D65" s="52"/>
-      <c r="E65" s="52"/>
-      <c r="F65" s="52"/>
-      <c r="G65" s="52"/>
-      <c r="H65" s="53"/>
-    </row>
-    <row r="66" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="65" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="59" t="s">
+        <v>133</v>
+      </c>
+      <c r="B65" s="60"/>
+      <c r="C65" s="60"/>
+      <c r="D65" s="60"/>
+      <c r="E65" s="60"/>
+      <c r="F65" s="60"/>
+      <c r="G65" s="60"/>
+      <c r="H65" s="61"/>
+    </row>
+    <row r="66" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="2"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -3661,7 +3673,7 @@
       </c>
       <c r="H66" s="5"/>
     </row>
-    <row r="67" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="67" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="6"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -3670,7 +3682,7 @@
       <c r="G67" s="27"/>
       <c r="H67" s="7"/>
     </row>
-    <row r="68" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="68" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="6"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -3680,7 +3692,7 @@
       <c r="G68" s="27"/>
       <c r="H68" s="7"/>
     </row>
-    <row r="69" spans="1:8" ht="21.95" customHeight="1">
+    <row r="69" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="11" t="s">
         <v>1</v>
       </c>
@@ -3706,7 +3718,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="70" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="11" t="s">
         <v>40</v>
       </c>
@@ -3719,14 +3731,14 @@
       <c r="D70" s="12"/>
       <c r="E70" s="12"/>
       <c r="F70" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H70" s="12"/>
     </row>
-    <row r="71" spans="1:8" ht="21.95" customHeight="1">
+    <row r="71" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="11" t="s">
         <v>8</v>
       </c>
@@ -3738,7 +3750,7 @@
       <c r="G71" s="41"/>
       <c r="H71" s="41"/>
     </row>
-    <row r="72" spans="1:8" ht="21.95" customHeight="1">
+    <row r="72" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="11" t="s">
         <v>3</v>
       </c>
@@ -3750,7 +3762,7 @@
       <c r="G72" s="41"/>
       <c r="H72" s="41"/>
     </row>
-    <row r="73" spans="1:8" ht="21.95" customHeight="1">
+    <row r="73" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="11" t="s">
         <v>28</v>
       </c>
@@ -3762,19 +3774,19 @@
       <c r="G73" s="8"/>
       <c r="H73" s="8"/>
     </row>
-    <row r="74" spans="1:8" ht="39.950000000000003" customHeight="1">
-      <c r="A74" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="B74" s="52"/>
-      <c r="C74" s="52"/>
-      <c r="D74" s="52"/>
-      <c r="E74" s="52"/>
-      <c r="F74" s="52"/>
-      <c r="G74" s="52"/>
-      <c r="H74" s="53"/>
-    </row>
-    <row r="75" spans="1:8" ht="21.95" customHeight="1">
+    <row r="74" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="B74" s="60"/>
+      <c r="C74" s="60"/>
+      <c r="D74" s="60"/>
+      <c r="E74" s="60"/>
+      <c r="F74" s="60"/>
+      <c r="G74" s="60"/>
+      <c r="H74" s="61"/>
+    </row>
+    <row r="75" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="2"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -3789,7 +3801,7 @@
       </c>
       <c r="H75" s="5"/>
     </row>
-    <row r="76" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="76" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="6"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -3798,7 +3810,7 @@
       <c r="G76" s="27"/>
       <c r="H76" s="7"/>
     </row>
-    <row r="77" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="77" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="6"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -3808,7 +3820,7 @@
       <c r="G77" s="27"/>
       <c r="H77" s="7"/>
     </row>
-    <row r="78" spans="1:8" ht="21.95" customHeight="1">
+    <row r="78" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="11" t="s">
         <v>1</v>
       </c>
@@ -3834,32 +3846,32 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="79" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D79" s="12"/>
       <c r="E79" s="12"/>
       <c r="F79" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G79" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H79" s="12"/>
     </row>
-    <row r="80" spans="1:8" ht="21.95" customHeight="1">
+    <row r="80" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B80" s="41" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C80" s="41">
         <v>0.39850000000000002</v>
@@ -3874,12 +3886,12 @@
       </c>
       <c r="H80" s="41"/>
     </row>
-    <row r="81" spans="1:8" ht="21.95" customHeight="1">
+    <row r="81" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B81" s="41" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C81" s="41">
         <v>3331.6</v>
@@ -3894,7 +3906,7 @@
       </c>
       <c r="H81" s="41"/>
     </row>
-    <row r="82" spans="1:8" ht="21.95" customHeight="1">
+    <row r="82" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="11" t="s">
         <v>28</v>
       </c>
@@ -3906,19 +3918,19 @@
       <c r="G82" s="8"/>
       <c r="H82" s="8"/>
     </row>
-    <row r="83" spans="1:8" ht="39.950000000000003" customHeight="1">
-      <c r="A83" s="51" t="s">
-        <v>135</v>
-      </c>
-      <c r="B83" s="52"/>
-      <c r="C83" s="52"/>
-      <c r="D83" s="52"/>
-      <c r="E83" s="52"/>
-      <c r="F83" s="52"/>
-      <c r="G83" s="52"/>
-      <c r="H83" s="53"/>
-    </row>
-    <row r="84" spans="1:8" ht="21.95" customHeight="1">
+    <row r="83" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="B83" s="60"/>
+      <c r="C83" s="60"/>
+      <c r="D83" s="60"/>
+      <c r="E83" s="60"/>
+      <c r="F83" s="60"/>
+      <c r="G83" s="60"/>
+      <c r="H83" s="61"/>
+    </row>
+    <row r="84" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="2"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -3933,7 +3945,7 @@
       </c>
       <c r="H84" s="5"/>
     </row>
-    <row r="85" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="85" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="6"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -3942,7 +3954,7 @@
       <c r="G85" s="27"/>
       <c r="H85" s="7"/>
     </row>
-    <row r="86" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="86" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="6"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -3952,7 +3964,7 @@
       <c r="G86" s="27"/>
       <c r="H86" s="7"/>
     </row>
-    <row r="87" spans="1:8" ht="21.95" customHeight="1">
+    <row r="87" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="11" t="s">
         <v>1</v>
       </c>
@@ -3978,32 +3990,32 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="88" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D88" s="12"/>
       <c r="E88" s="12"/>
       <c r="F88" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G88" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H88" s="12"/>
     </row>
-    <row r="89" spans="1:8" ht="21.95" customHeight="1">
+    <row r="89" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B89" s="41" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C89" s="41"/>
       <c r="D89" s="41"/>
@@ -4016,12 +4028,12 @@
       </c>
       <c r="H89" s="41"/>
     </row>
-    <row r="90" spans="1:8" ht="21.95" customHeight="1">
+    <row r="90" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B90" s="41" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C90" s="41"/>
       <c r="D90" s="41"/>
@@ -4034,7 +4046,7 @@
       </c>
       <c r="H90" s="41"/>
     </row>
-    <row r="91" spans="1:8" ht="21.95" customHeight="1">
+    <row r="91" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="11" t="s">
         <v>28</v>
       </c>
@@ -4046,19 +4058,19 @@
       <c r="G91" s="8"/>
       <c r="H91" s="8"/>
     </row>
-    <row r="92" spans="1:8" ht="39.950000000000003" customHeight="1">
-      <c r="A92" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="B92" s="52"/>
-      <c r="C92" s="52"/>
-      <c r="D92" s="52"/>
-      <c r="E92" s="52"/>
-      <c r="F92" s="52"/>
-      <c r="G92" s="52"/>
-      <c r="H92" s="53"/>
-    </row>
-    <row r="93" spans="1:8" ht="21.95" customHeight="1">
+    <row r="92" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="B92" s="60"/>
+      <c r="C92" s="60"/>
+      <c r="D92" s="60"/>
+      <c r="E92" s="60"/>
+      <c r="F92" s="60"/>
+      <c r="G92" s="60"/>
+      <c r="H92" s="61"/>
+    </row>
+    <row r="93" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="2"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -4073,7 +4085,7 @@
       </c>
       <c r="H93" s="5"/>
     </row>
-    <row r="94" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="94" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="6"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -4082,7 +4094,7 @@
       <c r="G94" s="27"/>
       <c r="H94" s="7"/>
     </row>
-    <row r="95" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="95" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="6"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -4092,7 +4104,7 @@
       <c r="G95" s="27"/>
       <c r="H95" s="7"/>
     </row>
-    <row r="96" spans="1:8" ht="21.95" customHeight="1">
+    <row r="96" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="11" t="s">
         <v>1</v>
       </c>
@@ -4118,34 +4130,34 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="97" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D97" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E97" s="12"/>
       <c r="F97" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G97" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H97" s="12"/>
     </row>
-    <row r="98" spans="1:8" ht="21.95" customHeight="1">
+    <row r="98" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B98" s="41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C98" s="41">
         <v>7.6100000000000001E-2</v>
@@ -4162,12 +4174,12 @@
       </c>
       <c r="H98" s="48"/>
     </row>
-    <row r="99" spans="1:8" ht="21.95" customHeight="1">
+    <row r="99" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B99" s="41" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C99" s="41">
         <v>1331.5</v>
@@ -4184,7 +4196,7 @@
       </c>
       <c r="H99" s="41"/>
     </row>
-    <row r="100" spans="1:8" ht="21.95" customHeight="1">
+    <row r="100" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="11" t="s">
         <v>28</v>
       </c>
@@ -4197,7 +4209,7 @@
       <c r="H100" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
     <mergeCell ref="A74:H74"/>
     <mergeCell ref="A83:H83"/>
     <mergeCell ref="A92:H92"/>
@@ -4211,6 +4223,7 @@
     <mergeCell ref="A38:H38"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E23:G23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4220,14 +4233,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="G45" sqref="G43:G45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="15.25" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
@@ -4238,56 +4251,56 @@
     <col min="9" max="9" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="39.950000000000003" customHeight="1">
-      <c r="A1" s="74" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-    </row>
-    <row r="2" spans="1:9" ht="39.950000000000003" customHeight="1">
-      <c r="A2" s="57" t="s">
+    <row r="1" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+    </row>
+    <row r="2" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="75" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="76"/>
-      <c r="H2" s="77"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="93"/>
       <c r="I2" s="17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80" t="s">
+      <c r="B3" s="73" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="80"/>
+      <c r="E3" s="73"/>
       <c r="F3" s="34"/>
-      <c r="G3" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="H3" s="80"/>
+      <c r="G3" s="73" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3" s="73"/>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
         <v>15</v>
       </c>
@@ -4312,11 +4325,11 @@
       <c r="H4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="70" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I4" s="69" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -4341,9 +4354,9 @@
       <c r="H5" s="8">
         <v>1902</v>
       </c>
-      <c r="I5" s="78"/>
-    </row>
-    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I5" s="94"/>
+    </row>
+    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>2</v>
       </c>
@@ -4369,10 +4382,10 @@
         <v>2317</v>
       </c>
       <c r="I6" s="32" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>3</v>
       </c>
@@ -4397,11 +4410,11 @@
       <c r="H7" s="8">
         <v>3056</v>
       </c>
-      <c r="I7" s="72" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I7" s="71" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
         <v>4</v>
       </c>
@@ -4426,9 +4439,9 @@
       <c r="H8" s="8">
         <v>4128</v>
       </c>
-      <c r="I8" s="72"/>
-    </row>
-    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I8" s="71"/>
+    </row>
+    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>5</v>
       </c>
@@ -4455,7 +4468,7 @@
       </c>
       <c r="I9" s="32"/>
     </row>
-    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <v>6</v>
       </c>
@@ -4482,7 +4495,7 @@
       </c>
       <c r="I10" s="32"/>
     </row>
-    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>7</v>
       </c>
@@ -4507,9 +4520,9 @@
       <c r="H11" s="8">
         <v>5147</v>
       </c>
-      <c r="I11" s="72"/>
-    </row>
-    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I11" s="71"/>
+    </row>
+    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="8">
         <v>8</v>
       </c>
@@ -4534,9 +4547,9 @@
       <c r="H12" s="8">
         <v>6023</v>
       </c>
-      <c r="I12" s="72"/>
-    </row>
-    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I12" s="71"/>
+    </row>
+    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8">
         <v>9</v>
       </c>
@@ -4561,9 +4574,9 @@
       <c r="H13" s="8">
         <v>3245</v>
       </c>
-      <c r="I13" s="72"/>
-    </row>
-    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I13" s="71"/>
+    </row>
+    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="8">
         <v>10</v>
       </c>
@@ -4590,7 +4603,7 @@
       </c>
       <c r="I14" s="21"/>
     </row>
-    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="16" t="s">
         <v>14</v>
       </c>
@@ -4623,24 +4636,24 @@
       </c>
       <c r="I15" s="22"/>
     </row>
-    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="60" t="s">
+    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="61"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="60" t="s">
+      <c r="B16" s="83"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="61"/>
-      <c r="H16" s="62"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="84"/>
       <c r="I16" s="16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="14" t="s">
         <v>15</v>
       </c>
@@ -4662,7 +4675,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="8">
         <v>1</v>
       </c>
@@ -4676,7 +4689,7 @@
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="8">
         <v>2</v>
       </c>
@@ -4690,7 +4703,7 @@
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="8">
         <v>3</v>
       </c>
@@ -4704,7 +4717,7 @@
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="8">
         <v>4</v>
       </c>
@@ -4718,7 +4731,7 @@
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="8">
         <v>5</v>
       </c>
@@ -4732,7 +4745,7 @@
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="8">
         <v>6</v>
       </c>
@@ -4746,7 +4759,7 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
     </row>
-    <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="8">
         <v>7</v>
       </c>
@@ -4760,7 +4773,7 @@
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="8">
         <v>8</v>
       </c>
@@ -4774,7 +4787,7 @@
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="8">
         <v>9</v>
       </c>
@@ -4788,7 +4801,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="8">
         <v>10</v>
       </c>
@@ -4802,7 +4815,7 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="16" t="s">
         <v>14</v>
       </c>
@@ -4816,24 +4829,24 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="67" t="s">
+    <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="68"/>
-      <c r="C29" s="69"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="68"/>
       <c r="D29" s="33"/>
       <c r="E29" s="33"/>
-      <c r="F29" s="67" t="s">
+      <c r="F29" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="G29" s="68"/>
-      <c r="H29" s="69"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="68"/>
       <c r="I29" s="16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="14" t="s">
         <v>15</v>
       </c>
@@ -4855,7 +4868,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="8">
         <v>1</v>
       </c>
@@ -4877,7 +4890,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="8">
         <v>2</v>
       </c>
@@ -4899,7 +4912,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="8">
         <v>3</v>
       </c>
@@ -4921,7 +4934,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="8">
         <v>4</v>
       </c>
@@ -4943,7 +4956,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="8">
         <v>5</v>
       </c>
@@ -4965,7 +4978,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="8">
         <v>6</v>
       </c>
@@ -4987,7 +5000,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="8">
         <v>7</v>
       </c>
@@ -5009,7 +5022,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="8">
         <v>8</v>
       </c>
@@ -5031,7 +5044,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="39" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="8">
         <v>9</v>
       </c>
@@ -5053,7 +5066,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="40" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="8">
         <v>10</v>
       </c>
@@ -5075,7 +5088,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="41" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="16" t="s">
         <v>14</v>
       </c>
@@ -5101,20 +5114,14 @@
         <v>681.3</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="G43" s="35"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="G44" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="I11:I13"/>
     <mergeCell ref="A16:E16"/>
@@ -5122,6 +5129,12 @@
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="F29:H29"/>
     <mergeCell ref="I7:I8"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5130,14 +5143,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="12.875" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
@@ -5148,56 +5161,56 @@
     <col min="9" max="9" width="36.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="39.950000000000003" customHeight="1">
-      <c r="A1" s="74" t="s">
-        <v>105</v>
-      </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-    </row>
-    <row r="2" spans="1:9" ht="39.950000000000003" customHeight="1">
-      <c r="A2" s="57" t="s">
+    <row r="1" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="90" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+    </row>
+    <row r="2" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="75" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="76"/>
-      <c r="H2" s="77"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="93"/>
       <c r="I2" s="17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80" t="s">
+      <c r="B3" s="73" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="80"/>
+      <c r="E3" s="73"/>
       <c r="F3" s="34"/>
-      <c r="G3" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="H3" s="80"/>
+      <c r="G3" s="73" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3" s="73"/>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
         <v>15</v>
       </c>
@@ -5222,11 +5235,11 @@
       <c r="H4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="70" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I4" s="69" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -5251,9 +5264,9 @@
       <c r="H5" s="8">
         <v>865</v>
       </c>
-      <c r="I5" s="78"/>
-    </row>
-    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I5" s="94"/>
+    </row>
+    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>2</v>
       </c>
@@ -5278,11 +5291,11 @@
       <c r="H6" s="8">
         <v>1428</v>
       </c>
-      <c r="I6" s="72" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I6" s="71" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>3</v>
       </c>
@@ -5307,9 +5320,9 @@
       <c r="H7" s="8">
         <v>1347</v>
       </c>
-      <c r="I7" s="72"/>
-    </row>
-    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I7" s="71"/>
+    </row>
+    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
         <v>4</v>
       </c>
@@ -5334,11 +5347,11 @@
       <c r="H8" s="8">
         <v>1023</v>
       </c>
-      <c r="I8" s="72" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I8" s="71" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>5</v>
       </c>
@@ -5363,9 +5376,9 @@
       <c r="H9" s="8">
         <v>1634</v>
       </c>
-      <c r="I9" s="72"/>
-    </row>
-    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I9" s="71"/>
+    </row>
+    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <v>6</v>
       </c>
@@ -5392,7 +5405,7 @@
       </c>
       <c r="I10" s="32"/>
     </row>
-    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>7</v>
       </c>
@@ -5417,9 +5430,9 @@
       <c r="H11" s="8">
         <v>550</v>
       </c>
-      <c r="I11" s="72"/>
-    </row>
-    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I11" s="71"/>
+    </row>
+    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="8">
         <v>8</v>
       </c>
@@ -5444,9 +5457,9 @@
       <c r="H12" s="8">
         <v>1153</v>
       </c>
-      <c r="I12" s="72"/>
-    </row>
-    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I12" s="71"/>
+    </row>
+    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8">
         <v>9</v>
       </c>
@@ -5471,9 +5484,9 @@
       <c r="H13" s="8">
         <v>502</v>
       </c>
-      <c r="I13" s="72"/>
-    </row>
-    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I13" s="71"/>
+    </row>
+    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="8">
         <v>10</v>
       </c>
@@ -5500,7 +5513,7 @@
       </c>
       <c r="I14" s="21"/>
     </row>
-    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="16" t="s">
         <v>14</v>
       </c>
@@ -5533,24 +5546,24 @@
       </c>
       <c r="I15" s="22"/>
     </row>
-    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="60" t="s">
+    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="61"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="60" t="s">
+      <c r="B16" s="83"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="61"/>
-      <c r="H16" s="62"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="84"/>
       <c r="I16" s="16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="14" t="s">
         <v>15</v>
       </c>
@@ -5571,11 +5584,11 @@
       <c r="H17" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="63" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I17" s="85" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="8">
         <v>1</v>
       </c>
@@ -5592,9 +5605,9 @@
       </c>
       <c r="G18" s="36"/>
       <c r="H18" s="8"/>
-      <c r="I18" s="64"/>
-    </row>
-    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I18" s="86"/>
+    </row>
+    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="8">
         <v>2</v>
       </c>
@@ -5612,7 +5625,7 @@
       <c r="G19" s="36"/>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="8">
         <v>3</v>
       </c>
@@ -5630,7 +5643,7 @@
       <c r="G20" s="36"/>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="8">
         <v>4</v>
       </c>
@@ -5648,7 +5661,7 @@
       <c r="G21" s="36"/>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="8">
         <v>5</v>
       </c>
@@ -5666,7 +5679,7 @@
       <c r="G22" s="36"/>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="8">
         <v>6</v>
       </c>
@@ -5684,7 +5697,7 @@
       <c r="G23" s="36"/>
       <c r="H23" s="8"/>
     </row>
-    <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="8">
         <v>7</v>
       </c>
@@ -5702,7 +5715,7 @@
       <c r="G24" s="36"/>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="8">
         <v>8</v>
       </c>
@@ -5720,7 +5733,7 @@
       <c r="G25" s="36"/>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="8">
         <v>9</v>
       </c>
@@ -5738,7 +5751,7 @@
       <c r="G26" s="36"/>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="8">
         <v>10</v>
       </c>
@@ -5756,7 +5769,7 @@
       <c r="G27" s="36"/>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="16" t="s">
         <v>14</v>
       </c>
@@ -5776,24 +5789,24 @@
       <c r="G28" s="36"/>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="67" t="s">
+    <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="68"/>
-      <c r="C29" s="69"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="68"/>
       <c r="D29" s="33"/>
       <c r="E29" s="33"/>
-      <c r="F29" s="67" t="s">
+      <c r="F29" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="G29" s="68"/>
-      <c r="H29" s="69"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="68"/>
       <c r="I29" s="16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="14" t="s">
         <v>15</v>
       </c>
@@ -5815,7 +5828,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="8">
         <v>1</v>
       </c>
@@ -5837,7 +5850,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="8">
         <v>2</v>
       </c>
@@ -5859,7 +5872,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="8">
         <v>3</v>
       </c>
@@ -5881,7 +5894,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="8">
         <v>4</v>
       </c>
@@ -5903,7 +5916,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="8">
         <v>5</v>
       </c>
@@ -5925,7 +5938,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="8">
         <v>6</v>
       </c>
@@ -5947,7 +5960,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="8">
         <v>7</v>
       </c>
@@ -5969,7 +5982,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="8">
         <v>8</v>
       </c>
@@ -5991,7 +6004,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="39" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="8">
         <v>9</v>
       </c>
@@ -6013,7 +6026,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="40" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="8">
         <v>10</v>
       </c>
@@ -6035,7 +6048,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="41" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="16" t="s">
         <v>14</v>
       </c>
@@ -6063,12 +6076,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="I11:I13"/>
     <mergeCell ref="A16:E16"/>
@@ -6078,6 +6085,12 @@
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="I17:I18"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6086,14 +6099,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="3" width="16.25" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
@@ -6103,56 +6116,56 @@
     <col min="9" max="9" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="39.950000000000003" customHeight="1">
-      <c r="A1" s="74" t="s">
-        <v>136</v>
-      </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-    </row>
-    <row r="2" spans="1:9" ht="39.950000000000003" customHeight="1">
-      <c r="A2" s="57" t="s">
+    <row r="1" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="90" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+    </row>
+    <row r="2" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="75" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="76"/>
-      <c r="H2" s="77"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="93"/>
       <c r="I2" s="17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80" t="s">
+      <c r="C3" s="73"/>
+      <c r="D3" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="80"/>
+      <c r="E3" s="73"/>
       <c r="F3" s="38"/>
-      <c r="G3" s="80" t="s">
+      <c r="G3" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="80"/>
+      <c r="H3" s="73"/>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
         <v>15</v>
       </c>
@@ -6177,9 +6190,9 @@
       <c r="H4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="70"/>
-    </row>
-    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I4" s="69"/>
+    </row>
+    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -6200,9 +6213,9 @@
       </c>
       <c r="G5" s="23"/>
       <c r="H5" s="8"/>
-      <c r="I5" s="78"/>
-    </row>
-    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I5" s="94"/>
+    </row>
+    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>2</v>
       </c>
@@ -6223,9 +6236,9 @@
       </c>
       <c r="G6" s="23"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="72"/>
-    </row>
-    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I6" s="71"/>
+    </row>
+    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>3</v>
       </c>
@@ -6246,9 +6259,9 @@
       </c>
       <c r="G7" s="23"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="72"/>
-    </row>
-    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I7" s="71"/>
+    </row>
+    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
         <v>4</v>
       </c>
@@ -6269,9 +6282,9 @@
       </c>
       <c r="G8" s="23"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="72"/>
-    </row>
-    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I8" s="71"/>
+    </row>
+    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>5</v>
       </c>
@@ -6294,7 +6307,7 @@
       <c r="H9" s="8"/>
       <c r="I9" s="32"/>
     </row>
-    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <v>6</v>
       </c>
@@ -6317,7 +6330,7 @@
       <c r="H10" s="8"/>
       <c r="I10" s="32"/>
     </row>
-    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>7</v>
       </c>
@@ -6338,9 +6351,9 @@
       </c>
       <c r="G11" s="23"/>
       <c r="H11" s="8"/>
-      <c r="I11" s="72"/>
-    </row>
-    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I11" s="71"/>
+    </row>
+    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="8">
         <v>8</v>
       </c>
@@ -6361,9 +6374,9 @@
       </c>
       <c r="G12" s="23"/>
       <c r="H12" s="8"/>
-      <c r="I12" s="72"/>
-    </row>
-    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I12" s="71"/>
+    </row>
+    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8">
         <v>9</v>
       </c>
@@ -6384,9 +6397,9 @@
       </c>
       <c r="G13" s="23"/>
       <c r="H13" s="8"/>
-      <c r="I13" s="72"/>
-    </row>
-    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I13" s="71"/>
+    </row>
+    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="8">
         <v>10</v>
       </c>
@@ -6409,7 +6422,7 @@
       <c r="H14" s="8"/>
       <c r="I14" s="21"/>
     </row>
-    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="16" t="s">
         <v>14</v>
       </c>
@@ -6442,24 +6455,24 @@
       </c>
       <c r="I15" s="22"/>
     </row>
-    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="60" t="s">
+    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="61"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="60" t="s">
+      <c r="B16" s="83"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="61"/>
-      <c r="H16" s="62"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="84"/>
       <c r="I16" s="16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="14" t="s">
         <v>15</v>
       </c>
@@ -6481,7 +6494,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="8">
         <v>1</v>
       </c>
@@ -6495,7 +6508,7 @@
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="8">
         <v>2</v>
       </c>
@@ -6509,7 +6522,7 @@
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="8">
         <v>3</v>
       </c>
@@ -6523,7 +6536,7 @@
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="8">
         <v>4</v>
       </c>
@@ -6537,7 +6550,7 @@
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="8">
         <v>5</v>
       </c>
@@ -6551,7 +6564,7 @@
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="8">
         <v>6</v>
       </c>
@@ -6565,7 +6578,7 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
     </row>
-    <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="8">
         <v>7</v>
       </c>
@@ -6579,7 +6592,7 @@
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="8">
         <v>8</v>
       </c>
@@ -6593,7 +6606,7 @@
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="8">
         <v>9</v>
       </c>
@@ -6607,7 +6620,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="8">
         <v>10</v>
       </c>
@@ -6621,7 +6634,7 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="16" t="s">
         <v>14</v>
       </c>
@@ -6635,24 +6648,24 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:9" ht="39.950000000000003" customHeight="1">
-      <c r="A29" s="67" t="s">
+    <row r="29" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="68"/>
-      <c r="C29" s="69"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="68"/>
       <c r="D29" s="37"/>
       <c r="E29" s="37"/>
-      <c r="F29" s="67" t="s">
+      <c r="F29" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="G29" s="68"/>
-      <c r="H29" s="69"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="68"/>
       <c r="I29" s="16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="14" t="s">
         <v>15</v>
       </c>
@@ -6674,7 +6687,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="8">
         <v>1</v>
       </c>
@@ -6696,7 +6709,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="8">
         <v>2</v>
       </c>
@@ -6718,7 +6731,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="8">
         <v>3</v>
       </c>
@@ -6740,7 +6753,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="8">
         <v>4</v>
       </c>
@@ -6762,7 +6775,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="8">
         <v>5</v>
       </c>
@@ -6784,7 +6797,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="8">
         <v>6</v>
       </c>
@@ -6806,7 +6819,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="8">
         <v>7</v>
       </c>
@@ -6828,7 +6841,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="8">
         <v>8</v>
       </c>
@@ -6850,7 +6863,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="39" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="8">
         <v>9</v>
       </c>
@@ -6872,7 +6885,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="40" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="8">
         <v>10</v>
       </c>
@@ -6894,7 +6907,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="41" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="16" t="s">
         <v>14</v>
       </c>
@@ -6943,14 +6956,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="11.875" customWidth="1"/>
     <col min="3" max="3" width="16.5" customWidth="1"/>
@@ -6959,48 +6972,48 @@
     <col min="7" max="7" width="45.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="39.75" customHeight="1">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-    </row>
-    <row r="2" spans="1:7" ht="39.950000000000003" customHeight="1">
-      <c r="A2" s="57" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+    </row>
+    <row r="2" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="57" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="58"/>
-      <c r="F2" s="59"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="B3" s="80" t="s">
-        <v>150</v>
-      </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80" t="s">
-        <v>150</v>
-      </c>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
+        <v>140</v>
+      </c>
+      <c r="B3" s="73" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
       <c r="G3" s="17"/>
     </row>
-    <row r="4" spans="1:7" ht="25.5" customHeight="1">
+    <row r="4" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
         <v>15</v>
       </c>
@@ -7019,11 +7032,11 @@
       <c r="F4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="70" t="s">
+      <c r="G4" s="69" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -7042,9 +7055,9 @@
       <c r="F5" s="8">
         <v>212</v>
       </c>
-      <c r="G5" s="71"/>
-    </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="G5" s="70"/>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>2</v>
       </c>
@@ -7063,11 +7076,11 @@
       <c r="F6" s="8">
         <v>140</v>
       </c>
-      <c r="G6" s="72" t="s">
+      <c r="G6" s="71" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>3</v>
       </c>
@@ -7086,9 +7099,9 @@
       <c r="F7" s="8">
         <v>211</v>
       </c>
-      <c r="G7" s="72"/>
-    </row>
-    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="G7" s="71"/>
+    </row>
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
         <v>4</v>
       </c>
@@ -7107,11 +7120,11 @@
       <c r="F8" s="8">
         <v>161</v>
       </c>
-      <c r="G8" s="72" t="s">
+      <c r="G8" s="71" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>5</v>
       </c>
@@ -7130,9 +7143,9 @@
       <c r="F9" s="8">
         <v>348</v>
       </c>
-      <c r="G9" s="72"/>
-    </row>
-    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="G9" s="71"/>
+    </row>
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <v>6</v>
       </c>
@@ -7151,9 +7164,9 @@
       <c r="F10" s="8">
         <v>134</v>
       </c>
-      <c r="G10" s="73"/>
-    </row>
-    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="G10" s="72"/>
+    </row>
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>7</v>
       </c>
@@ -7173,7 +7186,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="8">
         <v>8</v>
       </c>
@@ -7193,7 +7206,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8">
         <v>9</v>
       </c>
@@ -7213,7 +7226,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="8">
         <v>10</v>
       </c>
@@ -7233,11 +7246,11 @@
         <v>241</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="90">
+      <c r="B15" s="56">
         <f>AVERAGE(B5:B14)</f>
         <v>5.6000000000000019E-5</v>
       </c>
@@ -7257,37 +7270,37 @@
         <v>219.5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="39.950000000000003" customHeight="1">
-      <c r="A16" s="60" t="s">
+    <row r="16" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="61"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="60" t="s">
+      <c r="B16" s="83"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="61"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="86" t="s">
+      <c r="E16" s="83"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="75" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="84" t="s">
-        <v>141</v>
-      </c>
-      <c r="B17" s="83" t="s">
-        <v>146</v>
-      </c>
-      <c r="C17" s="83"/>
-      <c r="D17" s="83" t="s">
-        <v>146</v>
-      </c>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="93"/>
-    </row>
-    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="53" t="s">
+        <v>140</v>
+      </c>
+      <c r="B17" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="76"/>
+    </row>
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="14" t="s">
         <v>15</v>
       </c>
@@ -7306,11 +7319,11 @@
       <c r="F18" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="63" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="G18" s="85" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="8">
         <v>1</v>
       </c>
@@ -7329,9 +7342,9 @@
       <c r="F19" s="8">
         <v>146</v>
       </c>
-      <c r="G19" s="64"/>
-    </row>
-    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="G19" s="86"/>
+    </row>
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="8">
         <v>2</v>
       </c>
@@ -7350,9 +7363,9 @@
       <c r="F20" s="8">
         <v>98</v>
       </c>
-      <c r="G20" s="64"/>
-    </row>
-    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="G20" s="86"/>
+    </row>
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="8">
         <v>3</v>
       </c>
@@ -7371,11 +7384,11 @@
       <c r="F21" s="8">
         <v>102</v>
       </c>
-      <c r="G21" s="92" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="G21" s="57" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="8">
         <v>4</v>
       </c>
@@ -7395,7 +7408,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="8">
         <v>5</v>
       </c>
@@ -7415,7 +7428,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="8">
         <v>6</v>
       </c>
@@ -7435,7 +7448,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="8">
         <v>7</v>
       </c>
@@ -7455,7 +7468,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="8">
         <v>8</v>
       </c>
@@ -7475,7 +7488,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="8">
         <v>9</v>
       </c>
@@ -7495,7 +7508,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="8">
         <v>10</v>
       </c>
@@ -7515,7 +7528,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="16" t="s">
         <v>14</v>
       </c>
@@ -7539,39 +7552,39 @@
         <v>112.6</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="39.950000000000003" customHeight="1">
-      <c r="A30" s="67" t="s">
+    <row r="30" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="68"/>
-      <c r="C30" s="69"/>
-      <c r="D30" s="67" t="s">
+      <c r="B30" s="67"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="E30" s="68"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="86" t="s">
+      <c r="E30" s="67"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="75" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="94" t="s">
-        <v>141</v>
-      </c>
-      <c r="B31" s="95" t="s">
-        <v>146</v>
-      </c>
-      <c r="C31" s="95"/>
-      <c r="D31" s="95" t="s">
-        <v>146</v>
-      </c>
-      <c r="E31" s="95"/>
-      <c r="F31" s="95"/>
-      <c r="G31" s="93"/>
-    </row>
-    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="B31" s="87" t="s">
+        <v>145</v>
+      </c>
+      <c r="C31" s="87"/>
+      <c r="D31" s="87" t="s">
+        <v>145</v>
+      </c>
+      <c r="E31" s="87"/>
+      <c r="F31" s="87"/>
+      <c r="G31" s="76"/>
+    </row>
+    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B32" s="14" t="s">
         <v>16</v>
@@ -7588,11 +7601,11 @@
       <c r="F32" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G32" s="55" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="G32" s="77" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="8">
         <v>1</v>
       </c>
@@ -7611,9 +7624,9 @@
       <c r="F33" s="8">
         <v>547</v>
       </c>
-      <c r="G33" s="56"/>
-    </row>
-    <row r="34" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="G33" s="78"/>
+    </row>
+    <row r="34" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="8">
         <v>2</v>
       </c>
@@ -7632,9 +7645,9 @@
       <c r="F34" s="8">
         <v>547</v>
       </c>
-      <c r="G34" s="56"/>
-    </row>
-    <row r="35" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="G34" s="78"/>
+    </row>
+    <row r="35" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="8">
         <v>3</v>
       </c>
@@ -7653,9 +7666,9 @@
       <c r="F35" s="8">
         <v>563</v>
       </c>
-      <c r="G35" s="56"/>
-    </row>
-    <row r="36" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="G35" s="78"/>
+    </row>
+    <row r="36" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="8">
         <v>4</v>
       </c>
@@ -7674,9 +7687,9 @@
       <c r="F36" s="8">
         <v>593</v>
       </c>
-      <c r="G36" s="56"/>
-    </row>
-    <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="G36" s="78"/>
+    </row>
+    <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="8">
         <v>5</v>
       </c>
@@ -7696,7 +7709,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="38" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="8">
         <v>6</v>
       </c>
@@ -7716,7 +7729,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="39" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="8">
         <v>7</v>
       </c>
@@ -7736,7 +7749,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="40" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="8">
         <v>8</v>
       </c>
@@ -7756,7 +7769,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="41" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="8">
         <v>9</v>
       </c>
@@ -7776,7 +7789,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="42" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="8">
         <v>10</v>
       </c>
@@ -7796,7 +7809,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="20.100000000000001" customHeight="1">
+    <row r="43" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="16" t="s">
         <v>14</v>
       </c>
@@ -7822,6 +7835,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="G32:G36"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A30:C30"/>
     <mergeCell ref="D30:F30"/>
@@ -7834,14 +7855,6 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="G16:G17"/>
     <mergeCell ref="G30:G31"/>
-    <mergeCell ref="G32:G36"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7850,14 +7863,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G29" sqref="G19:G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="17.375" customWidth="1"/>
@@ -7867,56 +7880,56 @@
     <col min="9" max="9" width="44.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="44.25" customHeight="1">
-      <c r="A1" s="74" t="s">
+    <row r="1" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-    </row>
-    <row r="2" spans="1:9" ht="39.950000000000003" customHeight="1">
-      <c r="A2" s="57" t="s">
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+    </row>
+    <row r="2" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="75" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="76"/>
-      <c r="H2" s="77"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="93"/>
       <c r="I2" s="17" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80" t="s">
+      <c r="C3" s="73"/>
+      <c r="D3" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="80"/>
-      <c r="F3" s="57" t="s">
+      <c r="E3" s="73"/>
+      <c r="F3" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="58"/>
-      <c r="H3" s="59"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="81"/>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
         <v>37</v>
       </c>
@@ -7941,11 +7954,11 @@
       <c r="H4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="70" t="s">
+      <c r="I4" s="69" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -7970,9 +7983,9 @@
       <c r="H5" s="8">
         <v>104</v>
       </c>
-      <c r="I5" s="78"/>
-    </row>
-    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I5" s="94"/>
+    </row>
+    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>2</v>
       </c>
@@ -7997,11 +8010,11 @@
       <c r="H6" s="8">
         <v>56</v>
       </c>
-      <c r="I6" s="79" t="s">
+      <c r="I6" s="95" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>3</v>
       </c>
@@ -8026,9 +8039,9 @@
       <c r="H7" s="8">
         <v>152</v>
       </c>
-      <c r="I7" s="79"/>
-    </row>
-    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I7" s="95"/>
+    </row>
+    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
         <v>4</v>
       </c>
@@ -8053,11 +8066,11 @@
       <c r="H8" s="8">
         <v>144</v>
       </c>
-      <c r="I8" s="72" t="s">
+      <c r="I8" s="71" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>5</v>
       </c>
@@ -8082,9 +8095,9 @@
       <c r="H9" s="8">
         <v>38</v>
       </c>
-      <c r="I9" s="72"/>
-    </row>
-    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I9" s="71"/>
+    </row>
+    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <v>6</v>
       </c>
@@ -8109,11 +8122,11 @@
       <c r="H10" s="8">
         <v>147</v>
       </c>
-      <c r="I10" s="72" t="s">
+      <c r="I10" s="71" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>7</v>
       </c>
@@ -8138,9 +8151,9 @@
       <c r="H11" s="8">
         <v>72</v>
       </c>
-      <c r="I11" s="72"/>
-    </row>
-    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I11" s="71"/>
+    </row>
+    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="8">
         <v>8</v>
       </c>
@@ -8167,7 +8180,7 @@
       </c>
       <c r="I12" s="21"/>
     </row>
-    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8">
         <v>9</v>
       </c>
@@ -8194,7 +8207,7 @@
       </c>
       <c r="I13" s="21"/>
     </row>
-    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="8">
         <v>10</v>
       </c>
@@ -8221,7 +8234,7 @@
       </c>
       <c r="I14" s="21"/>
     </row>
-    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="16" t="s">
         <v>39</v>
       </c>
@@ -8254,43 +8267,43 @@
       </c>
       <c r="I15" s="22"/>
     </row>
-    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="60" t="s">
+    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="61"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="60" t="s">
+      <c r="B16" s="83"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="86" t="s">
+      <c r="E16" s="83"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="75" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="84" t="s">
+    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="53" t="s">
+        <v>140</v>
+      </c>
+      <c r="B17" s="74" t="s">
         <v>141</v>
       </c>
-      <c r="B17" s="83" t="s">
-        <v>142</v>
-      </c>
-      <c r="C17" s="83"/>
-      <c r="D17" s="83" t="s">
-        <v>144</v>
-      </c>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83" t="s">
-        <v>142</v>
-      </c>
-      <c r="G17" s="83"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="87"/>
-    </row>
-    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="C17" s="74"/>
+      <c r="D17" s="74" t="s">
+        <v>143</v>
+      </c>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="89"/>
+    </row>
+    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="14" t="s">
         <v>37</v>
       </c>
@@ -8315,11 +8328,11 @@
       <c r="H18" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="64" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I18" s="86" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="8">
         <v>1</v>
       </c>
@@ -8329,7 +8342,7 @@
       <c r="C19" s="8">
         <v>624</v>
       </c>
-      <c r="D19" s="82">
+      <c r="D19" s="52">
         <v>3857.4204484095999</v>
       </c>
       <c r="E19" s="8">
@@ -8338,15 +8351,15 @@
       <c r="F19" s="8">
         <v>1</v>
       </c>
-      <c r="G19" s="82">
+      <c r="G19" s="52">
         <v>3867.36274</v>
       </c>
       <c r="H19" s="8">
         <v>169</v>
       </c>
-      <c r="I19" s="64"/>
-    </row>
-    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I19" s="86"/>
+    </row>
+    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="8">
         <v>2</v>
       </c>
@@ -8356,7 +8369,7 @@
       <c r="C20" s="8">
         <v>592</v>
       </c>
-      <c r="D20" s="82">
+      <c r="D20" s="52">
         <v>3900.9339799999998</v>
       </c>
       <c r="E20" s="8">
@@ -8371,11 +8384,11 @@
       <c r="H20" s="8">
         <v>223</v>
       </c>
-      <c r="I20" s="85" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I20" s="88" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="8">
         <v>3</v>
       </c>
@@ -8385,7 +8398,7 @@
       <c r="C21" s="8">
         <v>739</v>
       </c>
-      <c r="D21" s="82">
+      <c r="D21" s="52">
         <v>3866.0778810000002</v>
       </c>
       <c r="E21" s="8">
@@ -8394,15 +8407,15 @@
       <c r="F21" s="8">
         <v>3</v>
       </c>
-      <c r="G21" s="81">
+      <c r="G21" s="51">
         <v>3866.0778799999998</v>
       </c>
       <c r="H21" s="8">
         <v>168</v>
       </c>
-      <c r="I21" s="85"/>
-    </row>
-    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I21" s="88"/>
+    </row>
+    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="8">
         <v>4</v>
       </c>
@@ -8412,7 +8425,7 @@
       <c r="C22" s="8">
         <v>557</v>
       </c>
-      <c r="D22" s="82">
+      <c r="D22" s="52">
         <v>3807.0946090000002</v>
       </c>
       <c r="E22" s="8">
@@ -8421,14 +8434,14 @@
       <c r="F22" s="8">
         <v>4</v>
       </c>
-      <c r="G22" s="81">
+      <c r="G22" s="51">
         <v>3821.4932899999999</v>
       </c>
       <c r="H22" s="8">
         <v>214</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="8">
         <v>5</v>
       </c>
@@ -8438,7 +8451,7 @@
       <c r="C23" s="8">
         <v>983</v>
       </c>
-      <c r="D23" s="82">
+      <c r="D23" s="52">
         <v>3880.99701</v>
       </c>
       <c r="E23" s="8">
@@ -8447,14 +8460,14 @@
       <c r="F23" s="8">
         <v>5</v>
       </c>
-      <c r="G23" s="81">
+      <c r="G23" s="51">
         <v>3825.1158799999998</v>
       </c>
       <c r="H23" s="8">
         <v>218</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="8">
         <v>6</v>
       </c>
@@ -8464,7 +8477,7 @@
       <c r="C24" s="8">
         <v>705</v>
       </c>
-      <c r="D24" s="82">
+      <c r="D24" s="52">
         <v>3865.5964399999998</v>
       </c>
       <c r="E24" s="8">
@@ -8473,14 +8486,14 @@
       <c r="F24" s="8">
         <v>6</v>
       </c>
-      <c r="G24" s="81">
+      <c r="G24" s="51">
         <v>3865.1548160000002</v>
       </c>
       <c r="H24" s="8">
         <v>220</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="8">
         <v>7</v>
       </c>
@@ -8490,7 +8503,7 @@
       <c r="C25" s="8">
         <v>638</v>
       </c>
-      <c r="D25" s="82">
+      <c r="D25" s="52">
         <v>3890.9590972400001</v>
       </c>
       <c r="E25" s="8">
@@ -8499,14 +8512,14 @@
       <c r="F25" s="8">
         <v>7</v>
       </c>
-      <c r="G25" s="81">
+      <c r="G25" s="51">
         <v>3827.6703499999999</v>
       </c>
       <c r="H25" s="8">
         <v>230</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="8">
         <v>8</v>
       </c>
@@ -8516,7 +8529,7 @@
       <c r="C26" s="8">
         <v>604</v>
       </c>
-      <c r="D26" s="82">
+      <c r="D26" s="52">
         <v>3880.9970108000002</v>
       </c>
       <c r="E26" s="8">
@@ -8525,14 +8538,14 @@
       <c r="F26" s="8">
         <v>8</v>
       </c>
-      <c r="G26" s="81">
+      <c r="G26" s="51">
         <v>3865.1548160000002</v>
       </c>
       <c r="H26" s="8">
         <v>236</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="8">
         <v>9</v>
       </c>
@@ -8542,7 +8555,7 @@
       <c r="C27" s="8">
         <v>582</v>
       </c>
-      <c r="D27" s="82">
+      <c r="D27" s="52">
         <v>3880.9969999999998</v>
       </c>
       <c r="E27" s="8">
@@ -8551,14 +8564,14 @@
       <c r="F27" s="8">
         <v>9</v>
       </c>
-      <c r="G27" s="81">
+      <c r="G27" s="51">
         <v>3842.5310020000002</v>
       </c>
       <c r="H27" s="8">
         <v>174</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="8">
         <v>10</v>
       </c>
@@ -8568,7 +8581,7 @@
       <c r="C28" s="8">
         <v>555</v>
       </c>
-      <c r="D28" s="82">
+      <c r="D28" s="52">
         <v>3875.5387460000002</v>
       </c>
       <c r="E28" s="8">
@@ -8577,14 +8590,14 @@
       <c r="F28" s="8">
         <v>10</v>
       </c>
-      <c r="G28" s="81">
+      <c r="G28" s="51">
         <v>3871.0477244416002</v>
       </c>
       <c r="H28" s="8">
         <v>166</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="16" t="s">
         <v>39</v>
       </c>
@@ -8596,7 +8609,7 @@
         <f>AVERAGE(C19:C28)</f>
         <v>657.9</v>
       </c>
-      <c r="D29" s="82">
+      <c r="D29" s="52">
         <f>AVERAGE(D19:D28)</f>
         <v>3870.6612222449598</v>
       </c>
@@ -8607,7 +8620,7 @@
       <c r="F29" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="G29" s="81">
+      <c r="G29" s="51">
         <f>AVERAGE(G19:G28)</f>
         <v>3850.3637198441611</v>
       </c>
@@ -8616,24 +8629,24 @@
         <v>201.8</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="67" t="s">
+    <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="68"/>
-      <c r="C30" s="69"/>
+      <c r="B30" s="67"/>
+      <c r="C30" s="68"/>
       <c r="D30" s="20"/>
       <c r="E30" s="20"/>
-      <c r="F30" s="67" t="s">
+      <c r="F30" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="G30" s="68"/>
-      <c r="H30" s="69"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="68"/>
       <c r="I30" s="16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="14" t="s">
         <v>37</v>
       </c>
@@ -8655,7 +8668,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="8">
         <v>1</v>
       </c>
@@ -8677,7 +8690,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="8">
         <v>2</v>
       </c>
@@ -8699,7 +8712,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="8">
         <v>3</v>
       </c>
@@ -8721,7 +8734,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="8">
         <v>4</v>
       </c>
@@ -8743,7 +8756,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="8">
         <v>5</v>
       </c>
@@ -8765,7 +8778,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="8">
         <v>6</v>
       </c>
@@ -8787,7 +8800,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="8">
         <v>7</v>
       </c>
@@ -8809,7 +8822,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="39" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="8">
         <v>8</v>
       </c>
@@ -8831,7 +8844,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="40" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="8">
         <v>9</v>
       </c>
@@ -8853,7 +8866,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="41" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="8">
         <v>10</v>
       </c>
@@ -8875,7 +8888,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="42" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="16" t="s">
         <v>39</v>
       </c>
@@ -8903,6 +8916,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="I10:I11"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A30:C30"/>
@@ -8914,15 +8936,6 @@
     <mergeCell ref="I18:I19"/>
     <mergeCell ref="I20:I21"/>
     <mergeCell ref="I16:I17"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8931,14 +8944,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="17.375" customWidth="1"/>
@@ -8948,56 +8961,56 @@
     <col min="9" max="9" width="44.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="44.25" customHeight="1">
-      <c r="A1" s="74" t="s">
+    <row r="1" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="90" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-    </row>
-    <row r="2" spans="1:9" ht="39.950000000000003" customHeight="1">
-      <c r="A2" s="57" t="s">
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+    </row>
+    <row r="2" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="75" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="76"/>
-      <c r="H2" s="77"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="93"/>
       <c r="I2" s="17" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80" t="s">
+      <c r="C3" s="73"/>
+      <c r="D3" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="80"/>
+      <c r="E3" s="73"/>
       <c r="F3" s="24"/>
-      <c r="G3" s="80" t="s">
+      <c r="G3" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="80"/>
+      <c r="H3" s="73"/>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
         <v>37</v>
       </c>
@@ -9022,11 +9035,11 @@
       <c r="H4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="70" t="s">
+      <c r="I4" s="69" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -9051,9 +9064,9 @@
       <c r="H5" s="8">
         <v>587</v>
       </c>
-      <c r="I5" s="78"/>
-    </row>
-    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I5" s="94"/>
+    </row>
+    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>2</v>
       </c>
@@ -9078,11 +9091,11 @@
       <c r="H6" s="8">
         <v>1459</v>
       </c>
-      <c r="I6" s="79" t="s">
+      <c r="I6" s="95" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>3</v>
       </c>
@@ -9107,9 +9120,9 @@
       <c r="H7" s="8">
         <v>580</v>
       </c>
-      <c r="I7" s="79"/>
-    </row>
-    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I7" s="95"/>
+    </row>
+    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
         <v>4</v>
       </c>
@@ -9134,9 +9147,9 @@
       <c r="H8" s="8">
         <v>696</v>
       </c>
-      <c r="I8" s="72"/>
-    </row>
-    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I8" s="71"/>
+    </row>
+    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>5</v>
       </c>
@@ -9161,9 +9174,9 @@
       <c r="H9" s="8">
         <v>373</v>
       </c>
-      <c r="I9" s="72"/>
-    </row>
-    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I9" s="71"/>
+    </row>
+    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <v>6</v>
       </c>
@@ -9188,9 +9201,9 @@
       <c r="H10" s="8">
         <v>418</v>
       </c>
-      <c r="I10" s="72"/>
-    </row>
-    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I10" s="71"/>
+    </row>
+    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>7</v>
       </c>
@@ -9215,9 +9228,9 @@
       <c r="H11" s="8">
         <v>1259</v>
       </c>
-      <c r="I11" s="72"/>
-    </row>
-    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I11" s="71"/>
+    </row>
+    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="8">
         <v>8</v>
       </c>
@@ -9244,7 +9257,7 @@
       </c>
       <c r="I12" s="21"/>
     </row>
-    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8">
         <v>9</v>
       </c>
@@ -9271,7 +9284,7 @@
       </c>
       <c r="I13" s="21"/>
     </row>
-    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="8">
         <v>10</v>
       </c>
@@ -9298,7 +9311,7 @@
       </c>
       <c r="I14" s="21"/>
     </row>
-    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="16" t="s">
         <v>39</v>
       </c>
@@ -9331,43 +9344,43 @@
       </c>
       <c r="I15" s="22"/>
     </row>
-    <row r="16" spans="1:9" ht="39.950000000000003" customHeight="1">
-      <c r="A16" s="60" t="s">
+    <row r="16" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="61"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="60" t="s">
+      <c r="B16" s="83"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="86" t="s">
+      <c r="E16" s="83"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="75" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="84" t="s">
+    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="53" t="s">
+        <v>140</v>
+      </c>
+      <c r="B17" s="74" t="s">
         <v>141</v>
       </c>
-      <c r="B17" s="83" t="s">
-        <v>142</v>
-      </c>
-      <c r="C17" s="83"/>
-      <c r="D17" s="83" t="s">
-        <v>147</v>
-      </c>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83" t="s">
-        <v>142</v>
-      </c>
-      <c r="G17" s="83"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="87"/>
-    </row>
-    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="C17" s="74"/>
+      <c r="D17" s="74" t="s">
+        <v>146</v>
+      </c>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="89"/>
+    </row>
+    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="14" t="s">
         <v>37</v>
       </c>
@@ -9392,11 +9405,11 @@
       <c r="H18" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="64" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I18" s="86" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="8">
         <v>1</v>
       </c>
@@ -9406,7 +9419,7 @@
       <c r="C19" s="8">
         <v>640</v>
       </c>
-      <c r="D19" s="81">
+      <c r="D19" s="51">
         <v>-835.52750900000001</v>
       </c>
       <c r="E19" s="8">
@@ -9421,9 +9434,9 @@
       <c r="H19" s="8">
         <v>185</v>
       </c>
-      <c r="I19" s="64"/>
-    </row>
-    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I19" s="86"/>
+    </row>
+    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="8">
         <v>2</v>
       </c>
@@ -9433,7 +9446,7 @@
       <c r="C20" s="8">
         <v>778</v>
       </c>
-      <c r="D20" s="81">
+      <c r="D20" s="51">
         <v>-837.51757999999995</v>
       </c>
       <c r="E20" s="8">
@@ -9442,14 +9455,14 @@
       <c r="F20" s="8">
         <v>2</v>
       </c>
-      <c r="G20" s="89">
+      <c r="G20" s="55">
         <v>-819.59867999999994</v>
       </c>
       <c r="H20" s="8">
         <v>189</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="8">
         <v>3</v>
       </c>
@@ -9459,7 +9472,7 @@
       <c r="C21" s="8">
         <v>747</v>
       </c>
-      <c r="D21" s="81">
+      <c r="D21" s="51">
         <v>-837.31142499999999</v>
       </c>
       <c r="E21" s="8">
@@ -9468,14 +9481,14 @@
       <c r="F21" s="8">
         <v>3</v>
       </c>
-      <c r="G21" s="89">
+      <c r="G21" s="55">
         <v>-833.09943899999996</v>
       </c>
       <c r="H21" s="8">
         <v>181</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="8">
         <v>4</v>
       </c>
@@ -9485,7 +9498,7 @@
       <c r="C22" s="8">
         <v>986</v>
       </c>
-      <c r="D22" s="81">
+      <c r="D22" s="51">
         <v>-837.44902000000002</v>
       </c>
       <c r="E22" s="8">
@@ -9494,14 +9507,14 @@
       <c r="F22" s="8">
         <v>4</v>
       </c>
-      <c r="G22" s="89">
+      <c r="G22" s="55">
         <v>-827.74662000000001</v>
       </c>
       <c r="H22" s="8">
         <v>196</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="8">
         <v>5</v>
       </c>
@@ -9511,7 +9524,7 @@
       <c r="C23" s="8">
         <v>612</v>
       </c>
-      <c r="D23" s="81">
+      <c r="D23" s="51">
         <v>-832.08442100000002</v>
       </c>
       <c r="E23" s="8">
@@ -9527,7 +9540,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="8">
         <v>6</v>
       </c>
@@ -9537,7 +9550,7 @@
       <c r="C24" s="8">
         <v>643</v>
       </c>
-      <c r="D24" s="81">
+      <c r="D24" s="51">
         <v>-837.3459861</v>
       </c>
       <c r="E24" s="8">
@@ -9553,7 +9566,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="8">
         <v>7</v>
       </c>
@@ -9563,7 +9576,7 @@
       <c r="C25" s="8">
         <v>660</v>
       </c>
-      <c r="D25" s="81">
+      <c r="D25" s="51">
         <v>-835.66011900000001</v>
       </c>
       <c r="E25" s="8">
@@ -9579,7 +9592,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="8">
         <v>8</v>
       </c>
@@ -9589,7 +9602,7 @@
       <c r="C26" s="8">
         <v>690</v>
       </c>
-      <c r="D26" s="81">
+      <c r="D26" s="51">
         <v>-836.79515442700006</v>
       </c>
       <c r="E26" s="8">
@@ -9598,14 +9611,14 @@
       <c r="F26" s="8">
         <v>8</v>
       </c>
-      <c r="G26" s="89">
+      <c r="G26" s="55">
         <v>-827.93043</v>
       </c>
       <c r="H26" s="8">
         <v>213</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="8">
         <v>9</v>
       </c>
@@ -9615,7 +9628,7 @@
       <c r="C27" s="8">
         <v>635</v>
       </c>
-      <c r="D27" s="81">
+      <c r="D27" s="51">
         <v>-836.69372500309998</v>
       </c>
       <c r="E27" s="8">
@@ -9631,7 +9644,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="8">
         <v>10</v>
       </c>
@@ -9641,7 +9654,7 @@
       <c r="C28" s="8">
         <v>650</v>
       </c>
-      <c r="D28" s="81">
+      <c r="D28" s="51">
         <v>-837.86148400000002</v>
       </c>
       <c r="E28" s="8">
@@ -9657,7 +9670,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="16" t="s">
         <v>39</v>
       </c>
@@ -9669,7 +9682,7 @@
         <f>AVERAGE(C19:C28)</f>
         <v>704.1</v>
       </c>
-      <c r="D29" s="89">
+      <c r="D29" s="55">
         <f>AVERAGE(D19:D28)</f>
         <v>-836.42464235301009</v>
       </c>
@@ -9680,7 +9693,7 @@
       <c r="F29" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="G29" s="89">
+      <c r="G29" s="55">
         <f>AVERAGE(G19:G28)</f>
         <v>-824.80474230000004</v>
       </c>
@@ -9689,24 +9702,24 @@
         <v>202</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="67" t="s">
+    <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="68"/>
-      <c r="C30" s="69"/>
+      <c r="B30" s="67"/>
+      <c r="C30" s="68"/>
       <c r="D30" s="20"/>
       <c r="E30" s="20"/>
-      <c r="F30" s="67" t="s">
+      <c r="F30" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="G30" s="68"/>
-      <c r="H30" s="69"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="68"/>
       <c r="I30" s="16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="14" t="s">
         <v>37</v>
       </c>
@@ -9727,11 +9740,11 @@
       <c r="H31" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="63" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I31" s="85" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="8">
         <v>1</v>
       </c>
@@ -9752,9 +9765,9 @@
       <c r="H32" s="8">
         <v>591</v>
       </c>
-      <c r="I32" s="64"/>
-    </row>
-    <row r="33" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I32" s="86"/>
+    </row>
+    <row r="33" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="8">
         <v>2</v>
       </c>
@@ -9775,9 +9788,9 @@
       <c r="H33" s="8">
         <v>718</v>
       </c>
-      <c r="I33" s="64"/>
-    </row>
-    <row r="34" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I33" s="86"/>
+    </row>
+    <row r="34" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="8">
         <v>3</v>
       </c>
@@ -9799,7 +9812,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="35" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="8">
         <v>4</v>
       </c>
@@ -9821,7 +9834,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="36" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="8">
         <v>5</v>
       </c>
@@ -9843,7 +9856,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="37" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="8">
         <v>6</v>
       </c>
@@ -9865,7 +9878,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="38" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="8">
         <v>7</v>
       </c>
@@ -9887,7 +9900,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="39" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="8">
         <v>8</v>
       </c>
@@ -9909,7 +9922,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="40" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="8">
         <v>9</v>
       </c>
@@ -9931,7 +9944,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="41" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="8">
         <v>10</v>
       </c>
@@ -9953,7 +9966,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="42" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="16" t="s">
         <v>39</v>
       </c>
@@ -9981,11 +9994,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="I16:I17"/>
     <mergeCell ref="I31:I33"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:E2"/>
@@ -10001,6 +10009,11 @@
     <mergeCell ref="I10:I11"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="B17:C17"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="I16:I17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10009,14 +10022,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="15.375" customWidth="1"/>
@@ -10027,56 +10040,56 @@
     <col min="9" max="9" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="39.950000000000003" customHeight="1">
-      <c r="A1" s="74" t="s">
+    <row r="1" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-    </row>
-    <row r="2" spans="1:9" ht="39.950000000000003" customHeight="1">
-      <c r="A2" s="57" t="s">
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+    </row>
+    <row r="2" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="75" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="76"/>
-      <c r="H2" s="77"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="93"/>
       <c r="I2" s="17" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80" t="s">
+      <c r="C3" s="73"/>
+      <c r="D3" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="80"/>
+      <c r="E3" s="73"/>
       <c r="F3" s="24"/>
-      <c r="G3" s="80" t="s">
+      <c r="G3" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="80"/>
+      <c r="H3" s="73"/>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
         <v>37</v>
       </c>
@@ -10101,11 +10114,11 @@
       <c r="H4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="70" t="s">
+      <c r="I4" s="69" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -10130,9 +10143,9 @@
       <c r="H5" s="8">
         <v>7578</v>
       </c>
-      <c r="I5" s="78"/>
-    </row>
-    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I5" s="94"/>
+    </row>
+    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>2</v>
       </c>
@@ -10157,11 +10170,11 @@
       <c r="H6" s="8">
         <v>9693</v>
       </c>
-      <c r="I6" s="79" t="s">
+      <c r="I6" s="95" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>3</v>
       </c>
@@ -10186,9 +10199,9 @@
       <c r="H7" s="8">
         <v>23280</v>
       </c>
-      <c r="I7" s="79"/>
-    </row>
-    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I7" s="95"/>
+    </row>
+    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
         <v>4</v>
       </c>
@@ -10213,11 +10226,11 @@
       <c r="H8" s="8">
         <v>20800</v>
       </c>
-      <c r="I8" s="72" t="s">
+      <c r="I8" s="71" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>5</v>
       </c>
@@ -10242,9 +10255,9 @@
       <c r="H9" s="8">
         <v>4222</v>
       </c>
-      <c r="I9" s="72"/>
-    </row>
-    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I9" s="71"/>
+    </row>
+    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <v>6</v>
       </c>
@@ -10269,9 +10282,9 @@
       <c r="H10" s="8">
         <v>6927</v>
       </c>
-      <c r="I10" s="72"/>
-    </row>
-    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I10" s="71"/>
+    </row>
+    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>7</v>
       </c>
@@ -10296,11 +10309,11 @@
       <c r="H11" s="8">
         <v>7911</v>
       </c>
-      <c r="I11" s="72" t="s">
+      <c r="I11" s="71" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="8">
         <v>8</v>
       </c>
@@ -10325,9 +10338,9 @@
       <c r="H12" s="8">
         <v>12087</v>
       </c>
-      <c r="I12" s="72"/>
-    </row>
-    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I12" s="71"/>
+    </row>
+    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8">
         <v>9</v>
       </c>
@@ -10352,9 +10365,9 @@
       <c r="H13" s="8">
         <v>5514</v>
       </c>
-      <c r="I13" s="72"/>
-    </row>
-    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I13" s="71"/>
+    </row>
+    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="8">
         <v>10</v>
       </c>
@@ -10381,7 +10394,7 @@
       </c>
       <c r="I14" s="21"/>
     </row>
-    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="16" t="s">
         <v>39</v>
       </c>
@@ -10414,24 +10427,24 @@
       </c>
       <c r="I15" s="22"/>
     </row>
-    <row r="16" spans="1:9" ht="39.950000000000003" customHeight="1">
-      <c r="A16" s="60" t="s">
+    <row r="16" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="61"/>
-      <c r="C16" s="62"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="84"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
-      <c r="F16" s="60" t="s">
+      <c r="F16" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="61"/>
-      <c r="H16" s="62"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="84"/>
       <c r="I16" s="16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="14" t="s">
         <v>37</v>
       </c>
@@ -10453,7 +10466,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="8">
         <v>1</v>
       </c>
@@ -10467,7 +10480,7 @@
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="8">
         <v>2</v>
       </c>
@@ -10481,7 +10494,7 @@
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="8">
         <v>3</v>
       </c>
@@ -10495,7 +10508,7 @@
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="8">
         <v>4</v>
       </c>
@@ -10509,7 +10522,7 @@
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="8">
         <v>5</v>
       </c>
@@ -10523,7 +10536,7 @@
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="8">
         <v>6</v>
       </c>
@@ -10537,7 +10550,7 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
     </row>
-    <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="8">
         <v>7</v>
       </c>
@@ -10551,7 +10564,7 @@
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="8">
         <v>8</v>
       </c>
@@ -10565,7 +10578,7 @@
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="8">
         <v>9</v>
       </c>
@@ -10579,7 +10592,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="8">
         <v>10</v>
       </c>
@@ -10593,7 +10606,7 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="16" t="s">
         <v>39</v>
       </c>
@@ -10607,24 +10620,24 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="67" t="s">
+    <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="68"/>
-      <c r="C29" s="69"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="68"/>
       <c r="D29" s="20"/>
       <c r="E29" s="20"/>
-      <c r="F29" s="67" t="s">
+      <c r="F29" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="G29" s="68"/>
-      <c r="H29" s="69"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="68"/>
       <c r="I29" s="16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="14" t="s">
         <v>37</v>
       </c>
@@ -10645,11 +10658,11 @@
       <c r="H30" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="I30" s="63" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I30" s="85" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="8">
         <v>1</v>
       </c>
@@ -10662,9 +10675,9 @@
       </c>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
-      <c r="I31" s="64"/>
-    </row>
-    <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I31" s="86"/>
+    </row>
+    <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="8">
         <v>2</v>
       </c>
@@ -10678,7 +10691,7 @@
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="8">
         <v>3</v>
       </c>
@@ -10692,10 +10705,10 @@
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
       <c r="I33" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="20.100000000000001" customHeight="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="8">
         <v>4</v>
       </c>
@@ -10709,10 +10722,10 @@
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
       <c r="I34" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="20.100000000000001" customHeight="1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="8">
         <v>5</v>
       </c>
@@ -10726,10 +10739,10 @@
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
       <c r="I35" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="20.100000000000001" customHeight="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="8">
         <v>6</v>
       </c>
@@ -10743,10 +10756,10 @@
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
       <c r="I36" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="20.100000000000001" customHeight="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="8">
         <v>7</v>
       </c>
@@ -10760,10 +10773,10 @@
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
       <c r="I37" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="20.100000000000001" customHeight="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="8">
         <v>8</v>
       </c>
@@ -10777,10 +10790,10 @@
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
       <c r="I38" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="20.100000000000001" customHeight="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="8">
         <v>9</v>
       </c>
@@ -10794,10 +10807,10 @@
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
       <c r="I39" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="20.100000000000001" customHeight="1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="8">
         <v>10</v>
       </c>
@@ -10811,10 +10824,10 @@
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
       <c r="I40" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="20.100000000000001" customHeight="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="16" t="s">
         <v>39</v>
       </c>
@@ -10828,7 +10841,7 @@
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
       <c r="I41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -10856,14 +10869,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="12.375" customWidth="1"/>
     <col min="3" max="3" width="16.625" customWidth="1"/>
@@ -10874,56 +10887,56 @@
     <col min="9" max="9" width="44.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="39.950000000000003" customHeight="1">
-      <c r="A1" s="74" t="s">
+    <row r="1" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="90" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-    </row>
-    <row r="2" spans="1:9" ht="39.950000000000003" customHeight="1">
-      <c r="A2" s="57" t="s">
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+    </row>
+    <row r="2" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="75" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="76"/>
-      <c r="H2" s="77"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="93"/>
       <c r="I2" s="17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80" t="s">
+      <c r="C3" s="73"/>
+      <c r="D3" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="80"/>
+      <c r="E3" s="73"/>
       <c r="F3" s="24"/>
-      <c r="G3" s="80" t="s">
+      <c r="G3" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="H3" s="80"/>
+      <c r="H3" s="73"/>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
         <v>15</v>
       </c>
@@ -10948,11 +10961,11 @@
       <c r="H4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="70" t="s">
+      <c r="I4" s="69" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -10977,9 +10990,9 @@
       <c r="H5" s="8">
         <v>1147</v>
       </c>
-      <c r="I5" s="78"/>
-    </row>
-    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I5" s="94"/>
+    </row>
+    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>2</v>
       </c>
@@ -11004,11 +11017,11 @@
       <c r="H6" s="8">
         <v>727</v>
       </c>
-      <c r="I6" s="72" t="s">
+      <c r="I6" s="71" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>3</v>
       </c>
@@ -11033,9 +11046,9 @@
       <c r="H7" s="8">
         <v>1255</v>
       </c>
-      <c r="I7" s="72"/>
-    </row>
-    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I7" s="71"/>
+    </row>
+    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
         <v>4</v>
       </c>
@@ -11060,9 +11073,9 @@
       <c r="H8" s="8">
         <v>715</v>
       </c>
-      <c r="I8" s="72"/>
-    </row>
-    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I8" s="71"/>
+    </row>
+    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>5</v>
       </c>
@@ -11087,9 +11100,9 @@
       <c r="H9" s="8">
         <v>733</v>
       </c>
-      <c r="I9" s="72"/>
-    </row>
-    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I9" s="71"/>
+    </row>
+    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <v>6</v>
       </c>
@@ -11114,9 +11127,9 @@
       <c r="H10" s="8">
         <v>528</v>
       </c>
-      <c r="I10" s="72"/>
-    </row>
-    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I10" s="71"/>
+    </row>
+    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>7</v>
       </c>
@@ -11141,9 +11154,9 @@
       <c r="H11" s="8">
         <v>1379</v>
       </c>
-      <c r="I11" s="72"/>
-    </row>
-    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I11" s="71"/>
+    </row>
+    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="8">
         <v>8</v>
       </c>
@@ -11168,9 +11181,9 @@
       <c r="H12" s="8">
         <v>551</v>
       </c>
-      <c r="I12" s="72"/>
-    </row>
-    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I12" s="71"/>
+    </row>
+    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8">
         <v>9</v>
       </c>
@@ -11195,9 +11208,9 @@
       <c r="H13" s="8">
         <v>611</v>
       </c>
-      <c r="I13" s="72"/>
-    </row>
-    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I13" s="71"/>
+    </row>
+    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="8">
         <v>10</v>
       </c>
@@ -11224,7 +11237,7 @@
       </c>
       <c r="I14" s="21"/>
     </row>
-    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="16" t="s">
         <v>14</v>
       </c>
@@ -11257,24 +11270,24 @@
       </c>
       <c r="I15" s="22"/>
     </row>
-    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="60" t="s">
+    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="61"/>
-      <c r="C16" s="62"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="84"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
-      <c r="F16" s="60" t="s">
+      <c r="F16" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="61"/>
-      <c r="H16" s="62"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="84"/>
       <c r="I16" s="16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="14" t="s">
         <v>15</v>
       </c>
@@ -11296,7 +11309,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="8">
         <v>1</v>
       </c>
@@ -11314,7 +11327,7 @@
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="8">
         <v>2</v>
       </c>
@@ -11332,7 +11345,7 @@
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="8">
         <v>3</v>
       </c>
@@ -11350,7 +11363,7 @@
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="8">
         <v>4</v>
       </c>
@@ -11368,7 +11381,7 @@
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="8">
         <v>5</v>
       </c>
@@ -11386,7 +11399,7 @@
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="8">
         <v>6</v>
       </c>
@@ -11404,7 +11417,7 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
     </row>
-    <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="8">
         <v>7</v>
       </c>
@@ -11422,7 +11435,7 @@
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="8">
         <v>8</v>
       </c>
@@ -11440,7 +11453,7 @@
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="8">
         <v>9</v>
       </c>
@@ -11458,7 +11471,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="8">
         <v>10</v>
       </c>
@@ -11476,7 +11489,7 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="16" t="s">
         <v>14</v>
       </c>
@@ -11496,24 +11509,24 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="67" t="s">
+    <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="68"/>
-      <c r="C29" s="69"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="68"/>
       <c r="D29" s="20"/>
       <c r="E29" s="20"/>
-      <c r="F29" s="67" t="s">
+      <c r="F29" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="G29" s="68"/>
-      <c r="H29" s="69"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="68"/>
       <c r="I29" s="16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="14" t="s">
         <v>15</v>
       </c>
@@ -11534,11 +11547,11 @@
       <c r="H30" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="I30" s="63" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I30" s="85" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="8">
         <v>1</v>
       </c>
@@ -11559,9 +11572,9 @@
       <c r="H31" s="8">
         <v>615</v>
       </c>
-      <c r="I31" s="64"/>
-    </row>
-    <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I31" s="86"/>
+    </row>
+    <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="8">
         <v>2</v>
       </c>
@@ -11583,7 +11596,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="8">
         <v>3</v>
       </c>
@@ -11605,7 +11618,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="8">
         <v>4</v>
       </c>
@@ -11627,7 +11640,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="8">
         <v>5</v>
       </c>
@@ -11649,7 +11662,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="8">
         <v>6</v>
       </c>
@@ -11671,7 +11684,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="8">
         <v>7</v>
       </c>
@@ -11693,7 +11706,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="8">
         <v>8</v>
       </c>
@@ -11715,7 +11728,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="39" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="8">
         <v>9</v>
       </c>
@@ -11737,7 +11750,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="40" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="8">
         <v>10</v>
       </c>
@@ -11759,7 +11772,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="41" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="16" t="s">
         <v>14</v>
       </c>
@@ -11787,12 +11800,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
     <mergeCell ref="I30:I31"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="F29:H29"/>
@@ -11802,6 +11809,12 @@
     <mergeCell ref="I11:I13"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="F16:H16"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11810,14 +11823,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="G44" sqref="G44:G45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="13.25" customWidth="1"/>
     <col min="3" max="3" width="15.625" customWidth="1"/>
@@ -11828,56 +11841,56 @@
     <col min="9" max="9" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="39.950000000000003" customHeight="1">
-      <c r="A1" s="74" t="s">
-        <v>91</v>
-      </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-    </row>
-    <row r="2" spans="1:9" ht="39.950000000000003" customHeight="1">
-      <c r="A2" s="57" t="s">
+    <row r="1" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="90" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+    </row>
+    <row r="2" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="75" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="76"/>
-      <c r="H2" s="77"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="93"/>
       <c r="I2" s="17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80" t="s">
+      <c r="C3" s="73"/>
+      <c r="D3" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="80"/>
+      <c r="E3" s="73"/>
       <c r="F3" s="29"/>
-      <c r="G3" s="80" t="s">
+      <c r="G3" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="80"/>
+      <c r="H3" s="73"/>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
         <v>15</v>
       </c>
@@ -11902,11 +11915,11 @@
       <c r="H4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="70" t="s">
+      <c r="I4" s="69" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -11931,9 +11944,9 @@
       <c r="H5" s="8">
         <v>5951</v>
       </c>
-      <c r="I5" s="78"/>
-    </row>
-    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I5" s="94"/>
+    </row>
+    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>2</v>
       </c>
@@ -11958,11 +11971,11 @@
       <c r="H6" s="8">
         <v>7880</v>
       </c>
-      <c r="I6" s="72" t="s">
+      <c r="I6" s="71" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>3</v>
       </c>
@@ -11987,9 +12000,9 @@
       <c r="H7" s="8">
         <v>12338</v>
       </c>
-      <c r="I7" s="72"/>
-    </row>
-    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I7" s="71"/>
+    </row>
+    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
         <v>4</v>
       </c>
@@ -12014,9 +12027,9 @@
       <c r="H8" s="8">
         <v>13776</v>
       </c>
-      <c r="I8" s="72"/>
-    </row>
-    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I8" s="71"/>
+    </row>
+    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>5</v>
       </c>
@@ -12043,7 +12056,7 @@
       </c>
       <c r="I9" s="32"/>
     </row>
-    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <v>6</v>
       </c>
@@ -12070,7 +12083,7 @@
       </c>
       <c r="I10" s="32"/>
     </row>
-    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>7</v>
       </c>
@@ -12095,9 +12108,9 @@
       <c r="H11" s="8">
         <v>2580</v>
       </c>
-      <c r="I11" s="72"/>
-    </row>
-    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I11" s="71"/>
+    </row>
+    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="8">
         <v>8</v>
       </c>
@@ -12122,9 +12135,9 @@
       <c r="H12" s="8">
         <v>10027</v>
       </c>
-      <c r="I12" s="72"/>
-    </row>
-    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I12" s="71"/>
+    </row>
+    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8">
         <v>9</v>
       </c>
@@ -12149,9 +12162,9 @@
       <c r="H13" s="8">
         <v>5525</v>
       </c>
-      <c r="I13" s="72"/>
-    </row>
-    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I13" s="71"/>
+    </row>
+    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="8">
         <v>10</v>
       </c>
@@ -12178,7 +12191,7 @@
       </c>
       <c r="I14" s="21"/>
     </row>
-    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="16" t="s">
         <v>14</v>
       </c>
@@ -12211,24 +12224,24 @@
       </c>
       <c r="I15" s="22"/>
     </row>
-    <row r="16" spans="1:9" ht="39.950000000000003" customHeight="1">
-      <c r="A16" s="60" t="s">
+    <row r="16" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="61"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="60" t="s">
+      <c r="B16" s="83"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="61"/>
-      <c r="H16" s="62"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="84"/>
       <c r="I16" s="16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="14" t="s">
         <v>15</v>
       </c>
@@ -12250,7 +12263,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="8">
         <v>1</v>
       </c>
@@ -12268,7 +12281,7 @@
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="8">
         <v>2</v>
       </c>
@@ -12286,7 +12299,7 @@
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="8">
         <v>3</v>
       </c>
@@ -12304,7 +12317,7 @@
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="8">
         <v>4</v>
       </c>
@@ -12322,7 +12335,7 @@
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="8">
         <v>5</v>
       </c>
@@ -12340,7 +12353,7 @@
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="8">
         <v>6</v>
       </c>
@@ -12358,7 +12371,7 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
     </row>
-    <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="8">
         <v>7</v>
       </c>
@@ -12376,7 +12389,7 @@
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="8">
         <v>8</v>
       </c>
@@ -12394,7 +12407,7 @@
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="8">
         <v>9</v>
       </c>
@@ -12412,7 +12425,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="8">
         <v>10</v>
       </c>
@@ -12430,7 +12443,7 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="16" t="s">
         <v>14</v>
       </c>
@@ -12450,24 +12463,24 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="67" t="s">
+    <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="68"/>
-      <c r="C29" s="69"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="68"/>
       <c r="D29" s="28"/>
       <c r="E29" s="28"/>
-      <c r="F29" s="67" t="s">
+      <c r="F29" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="G29" s="68"/>
-      <c r="H29" s="69"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="68"/>
       <c r="I29" s="16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="14" t="s">
         <v>15</v>
       </c>
@@ -12489,7 +12502,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="8">
         <v>1</v>
       </c>
@@ -12511,7 +12524,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="8">
         <v>2</v>
       </c>
@@ -12533,7 +12546,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="8">
         <v>3</v>
       </c>
@@ -12555,7 +12568,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="8">
         <v>4</v>
       </c>
@@ -12577,7 +12590,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="8">
         <v>5</v>
       </c>
@@ -12599,7 +12612,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="8">
         <v>6</v>
       </c>
@@ -12621,7 +12634,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="8">
         <v>7</v>
       </c>
@@ -12643,7 +12656,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="8">
         <v>8</v>
       </c>
@@ -12665,7 +12678,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="39" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="8">
         <v>9</v>
       </c>
@@ -12687,7 +12700,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="40" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="8">
         <v>10</v>
       </c>
@@ -12709,7 +12722,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="41" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="16" t="s">
         <v>14</v>
       </c>
@@ -12737,12 +12750,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="F29:H29"/>
     <mergeCell ref="I6:I8"/>
@@ -12750,6 +12757,12 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="I11:I13"/>
     <mergeCell ref="F16:H16"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12758,14 +12771,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="G43" sqref="G43:G44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="12.75" customWidth="1"/>
     <col min="3" max="3" width="14.125" customWidth="1"/>
@@ -12776,56 +12789,56 @@
     <col min="9" max="9" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="39.950000000000003" customHeight="1">
-      <c r="A1" s="74" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-    </row>
-    <row r="2" spans="1:9" ht="39.950000000000003" customHeight="1">
-      <c r="A2" s="57" t="s">
+    <row r="1" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="90" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+    </row>
+    <row r="2" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="75" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="76"/>
-      <c r="H2" s="77"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="93"/>
       <c r="I2" s="17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80" t="s">
+      <c r="C3" s="73"/>
+      <c r="D3" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="80"/>
+      <c r="E3" s="73"/>
       <c r="F3" s="29"/>
-      <c r="G3" s="80" t="s">
+      <c r="G3" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="80"/>
+      <c r="H3" s="73"/>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
         <v>15</v>
       </c>
@@ -12850,11 +12863,11 @@
       <c r="H4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="70" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I4" s="69" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -12879,9 +12892,9 @@
       <c r="H5" s="8">
         <v>295</v>
       </c>
-      <c r="I5" s="78"/>
-    </row>
-    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I5" s="94"/>
+    </row>
+    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>2</v>
       </c>
@@ -12906,11 +12919,11 @@
       <c r="H6" s="8">
         <v>685</v>
       </c>
-      <c r="I6" s="72" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I6" s="71" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>3</v>
       </c>
@@ -12935,9 +12948,9 @@
       <c r="H7" s="8">
         <v>262</v>
       </c>
-      <c r="I7" s="72"/>
-    </row>
-    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I7" s="71"/>
+    </row>
+    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
         <v>4</v>
       </c>
@@ -12962,9 +12975,9 @@
       <c r="H8" s="8">
         <v>266</v>
       </c>
-      <c r="I8" s="72"/>
-    </row>
-    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I8" s="71"/>
+    </row>
+    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>5</v>
       </c>
@@ -12991,7 +13004,7 @@
       </c>
       <c r="I9" s="32"/>
     </row>
-    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <v>6</v>
       </c>
@@ -13018,7 +13031,7 @@
       </c>
       <c r="I10" s="32"/>
     </row>
-    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>7</v>
       </c>
@@ -13043,9 +13056,9 @@
       <c r="H11" s="8">
         <v>486</v>
       </c>
-      <c r="I11" s="72"/>
-    </row>
-    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I11" s="71"/>
+    </row>
+    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="8">
         <v>8</v>
       </c>
@@ -13070,9 +13083,9 @@
       <c r="H12" s="8">
         <v>349</v>
       </c>
-      <c r="I12" s="72"/>
-    </row>
-    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I12" s="71"/>
+    </row>
+    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8">
         <v>9</v>
       </c>
@@ -13097,9 +13110,9 @@
       <c r="H13" s="8">
         <v>586</v>
       </c>
-      <c r="I13" s="72"/>
-    </row>
-    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I13" s="71"/>
+    </row>
+    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="8">
         <v>10</v>
       </c>
@@ -13126,7 +13139,7 @@
       </c>
       <c r="I14" s="21"/>
     </row>
-    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="16" t="s">
         <v>14</v>
       </c>
@@ -13159,24 +13172,24 @@
       </c>
       <c r="I15" s="22"/>
     </row>
-    <row r="16" spans="1:9" ht="39.950000000000003" customHeight="1">
-      <c r="A16" s="60" t="s">
+    <row r="16" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="61"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="60" t="s">
+      <c r="B16" s="83"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="61"/>
-      <c r="H16" s="62"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="84"/>
       <c r="I16" s="16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="14" t="s">
         <v>15</v>
       </c>
@@ -13198,7 +13211,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="8">
         <v>1</v>
       </c>
@@ -13216,7 +13229,7 @@
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="8">
         <v>2</v>
       </c>
@@ -13234,7 +13247,7 @@
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="8">
         <v>3</v>
       </c>
@@ -13252,7 +13265,7 @@
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="8">
         <v>4</v>
       </c>
@@ -13270,7 +13283,7 @@
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="8">
         <v>5</v>
       </c>
@@ -13288,7 +13301,7 @@
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="8">
         <v>6</v>
       </c>
@@ -13306,7 +13319,7 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
     </row>
-    <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="8">
         <v>7</v>
       </c>
@@ -13324,7 +13337,7 @@
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="8">
         <v>8</v>
       </c>
@@ -13342,7 +13355,7 @@
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="8">
         <v>9</v>
       </c>
@@ -13360,7 +13373,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="8">
         <v>10</v>
       </c>
@@ -13378,7 +13391,7 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="16" t="s">
         <v>14</v>
       </c>
@@ -13398,24 +13411,24 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="67" t="s">
+    <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="68"/>
-      <c r="C29" s="69"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="68"/>
       <c r="D29" s="28"/>
       <c r="E29" s="28"/>
-      <c r="F29" s="67" t="s">
+      <c r="F29" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="G29" s="68"/>
-      <c r="H29" s="69"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="68"/>
       <c r="I29" s="16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="14" t="s">
         <v>15</v>
       </c>
@@ -13437,7 +13450,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="8">
         <v>1</v>
       </c>
@@ -13459,7 +13472,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="8">
         <v>2</v>
       </c>
@@ -13481,7 +13494,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="8">
         <v>3</v>
       </c>
@@ -13503,7 +13516,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="8">
         <v>4</v>
       </c>
@@ -13525,7 +13538,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="8">
         <v>5</v>
       </c>
@@ -13547,7 +13560,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="8">
         <v>6</v>
       </c>
@@ -13569,7 +13582,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="8">
         <v>7</v>
       </c>
@@ -13591,7 +13604,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="8">
         <v>8</v>
       </c>
@@ -13613,7 +13626,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="39" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="8">
         <v>9</v>
       </c>
@@ -13635,7 +13648,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="40" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="8">
         <v>10</v>
       </c>
@@ -13657,7 +13670,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="41" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="16" t="s">
         <v>14</v>
       </c>
@@ -13706,14 +13719,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
       <selection sqref="A1:XFD41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="12.125" customWidth="1"/>
     <col min="3" max="3" width="15.875" customWidth="1"/>
@@ -13725,56 +13738,56 @@
     <col min="9" max="9" width="35.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="39.950000000000003" customHeight="1">
-      <c r="A1" s="74" t="s">
-        <v>133</v>
-      </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-    </row>
-    <row r="2" spans="1:9" ht="39.950000000000003" customHeight="1">
-      <c r="A2" s="57" t="s">
+    <row r="1" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="90" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+    </row>
+    <row r="2" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="75" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="76"/>
-      <c r="H2" s="77"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="93"/>
       <c r="I2" s="17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80" t="s">
+      <c r="C3" s="73"/>
+      <c r="D3" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="80"/>
+      <c r="E3" s="73"/>
       <c r="F3" s="31"/>
-      <c r="G3" s="80" t="s">
+      <c r="G3" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="80"/>
+      <c r="H3" s="73"/>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
         <v>15</v>
       </c>
@@ -13799,9 +13812,9 @@
       <c r="H4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="70"/>
-    </row>
-    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I4" s="69"/>
+    </row>
+    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -13814,9 +13827,9 @@
       </c>
       <c r="G5" s="23"/>
       <c r="H5" s="8"/>
-      <c r="I5" s="78"/>
-    </row>
-    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I5" s="94"/>
+    </row>
+    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>2</v>
       </c>
@@ -13829,9 +13842,9 @@
       </c>
       <c r="G6" s="23"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="72"/>
-    </row>
-    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I6" s="71"/>
+    </row>
+    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>3</v>
       </c>
@@ -13844,9 +13857,9 @@
       </c>
       <c r="G7" s="23"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="72"/>
-    </row>
-    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I7" s="71"/>
+    </row>
+    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
         <v>4</v>
       </c>
@@ -13859,9 +13872,9 @@
       </c>
       <c r="G8" s="23"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="72"/>
-    </row>
-    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I8" s="71"/>
+    </row>
+    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>5</v>
       </c>
@@ -13876,7 +13889,7 @@
       <c r="H9" s="8"/>
       <c r="I9" s="32"/>
     </row>
-    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <v>6</v>
       </c>
@@ -13891,7 +13904,7 @@
       <c r="H10" s="8"/>
       <c r="I10" s="32"/>
     </row>
-    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>7</v>
       </c>
@@ -13904,9 +13917,9 @@
       </c>
       <c r="G11" s="23"/>
       <c r="H11" s="8"/>
-      <c r="I11" s="72"/>
-    </row>
-    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I11" s="71"/>
+    </row>
+    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="8">
         <v>8</v>
       </c>
@@ -13919,9 +13932,9 @@
       </c>
       <c r="G12" s="23"/>
       <c r="H12" s="8"/>
-      <c r="I12" s="72"/>
-    </row>
-    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I12" s="71"/>
+    </row>
+    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8">
         <v>9</v>
       </c>
@@ -13934,9 +13947,9 @@
       </c>
       <c r="G13" s="23"/>
       <c r="H13" s="8"/>
-      <c r="I13" s="72"/>
-    </row>
-    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="I13" s="71"/>
+    </row>
+    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="8">
         <v>10</v>
       </c>
@@ -13951,7 +13964,7 @@
       <c r="H14" s="8"/>
       <c r="I14" s="21"/>
     </row>
-    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="16" t="s">
         <v>14</v>
       </c>
@@ -13984,24 +13997,24 @@
       </c>
       <c r="I15" s="22"/>
     </row>
-    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="60" t="s">
+    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="61"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="60" t="s">
+      <c r="B16" s="83"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="61"/>
-      <c r="H16" s="62"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="84"/>
       <c r="I16" s="16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="14" t="s">
         <v>15</v>
       </c>
@@ -14023,7 +14036,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="8">
         <v>1</v>
       </c>
@@ -14037,7 +14050,7 @@
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="8">
         <v>2</v>
       </c>
@@ -14051,7 +14064,7 @@
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="8">
         <v>3</v>
       </c>
@@ -14065,7 +14078,7 @@
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="8">
         <v>4</v>
       </c>
@@ -14079,7 +14092,7 @@
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="8">
         <v>5</v>
       </c>
@@ -14093,7 +14106,7 @@
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="8">
         <v>6</v>
       </c>
@@ -14107,7 +14120,7 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
     </row>
-    <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="8">
         <v>7</v>
       </c>
@@ -14121,7 +14134,7 @@
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="8">
         <v>8</v>
       </c>
@@ -14135,7 +14148,7 @@
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="8">
         <v>9</v>
       </c>
@@ -14149,7 +14162,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="8">
         <v>10</v>
       </c>
@@ -14163,7 +14176,7 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="16" t="s">
         <v>14</v>
       </c>
@@ -14177,24 +14190,24 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="67" t="s">
+    <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="68"/>
-      <c r="C29" s="69"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="68"/>
       <c r="D29" s="30"/>
       <c r="E29" s="30"/>
-      <c r="F29" s="67" t="s">
+      <c r="F29" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="G29" s="68"/>
-      <c r="H29" s="69"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="68"/>
       <c r="I29" s="16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="14" t="s">
         <v>15</v>
       </c>
@@ -14216,7 +14229,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="8">
         <v>1</v>
       </c>
@@ -14230,7 +14243,7 @@
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="8">
         <v>2</v>
       </c>
@@ -14244,7 +14257,7 @@
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="8">
         <v>3</v>
       </c>
@@ -14258,7 +14271,7 @@
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="8">
         <v>4</v>
       </c>
@@ -14272,7 +14285,7 @@
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="8">
         <v>5</v>
       </c>
@@ -14286,7 +14299,7 @@
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="8">
         <v>6</v>
       </c>
@@ -14300,7 +14313,7 @@
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="8">
         <v>7</v>
       </c>
@@ -14314,7 +14327,7 @@
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="8">
         <v>8</v>
       </c>
@@ -14328,7 +14341,7 @@
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="39" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="8">
         <v>9</v>
       </c>
@@ -14342,7 +14355,7 @@
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="40" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="8">
         <v>10</v>
       </c>
@@ -14356,7 +14369,7 @@
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="41" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="16" t="s">
         <v>14</v>
       </c>
